--- a/ch-4.xlsx
+++ b/ch-4.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD28FEC-F22B-401F-B450-AC4135E9C9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170368CE-C583-4AB3-9DE0-71047CA53737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3780" yWindow="2490" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
-    <sheet name="correlations" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="scatterplot" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="scatterplot-trend" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="regression" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="correlations" sheetId="2" r:id="rId2"/>
+    <sheet name="scatterplot" sheetId="3" r:id="rId3"/>
+    <sheet name="scatterplot-trend" sheetId="4" r:id="rId4"/>
+    <sheet name="regression" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1632,6 +1642,1463 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpg!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mpg!$E$2:$E$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="392"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4A3-4314-BCF9-2DB4D0E05B5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="896937615"/>
+        <c:axId val="1011570031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="896937615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011570031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1011570031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896937615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4395,7 +5862,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7178,7 +8645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10145,6 +11612,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11732,7 +13239,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1070161</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2526925</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>211790</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E0A7BC-A631-48DF-8135-CE2DBD2CA31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11813,7 +13877,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11857,7 +13921,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J393" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="mpg" displayName="mpg" ref="A1:J393" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="cylinders"/>
@@ -12173,21 +14237,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5390625" customWidth="1"/>
-    <col min="4" max="5" width="13.2890625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5390625" customWidth="1"/>
-    <col min="11" max="11" width="31.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="13.296875" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="8" max="8" width="12.296875" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="31.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12219,7 +14281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12251,7 +14313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12283,7 +14345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12315,7 +14377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12347,7 +14409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12379,7 +14441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12411,7 +14473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12443,7 +14505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12475,7 +14537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12507,7 +14569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12539,7 +14601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12571,7 +14633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12603,7 +14665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12635,7 +14697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12667,7 +14729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12699,7 +14761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12731,7 +14793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12763,7 +14825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12795,7 +14857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12827,7 +14889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12859,7 +14921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12891,7 +14953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12923,7 +14985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12955,7 +15017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12987,7 +15049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13019,7 +15081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13051,7 +15113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13083,7 +15145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13115,7 +15177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13147,7 +15209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13179,7 +15241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13211,7 +15273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13243,7 +15305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13275,7 +15337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13307,7 +15369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13339,7 +15401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13371,7 +15433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13403,7 +15465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13435,7 +15497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13467,7 +15529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13499,7 +15561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13531,7 +15593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13563,7 +15625,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13595,7 +15657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13627,7 +15689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13659,7 +15721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13691,7 +15753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13723,7 +15785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13755,7 +15817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13787,7 +15849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13819,7 +15881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13851,7 +15913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13883,7 +15945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13915,7 +15977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -13947,7 +16009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13979,7 +16041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14011,7 +16073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -14043,7 +16105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -14075,7 +16137,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -14107,7 +16169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -14139,7 +16201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -14171,7 +16233,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -14203,7 +16265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -14235,7 +16297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14267,7 +16329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14299,7 +16361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14331,7 +16393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14363,7 +16425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14395,7 +16457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14427,7 +16489,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14459,7 +16521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14491,7 +16553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14523,7 +16585,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14555,7 +16617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14587,7 +16649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14619,7 +16681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14651,7 +16713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14683,7 +16745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14715,7 +16777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14747,7 +16809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14779,7 +16841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14811,7 +16873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14843,7 +16905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14875,7 +16937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14907,7 +16969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14939,7 +17001,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14971,7 +17033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15003,7 +17065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15035,7 +17097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15067,7 +17129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15099,7 +17161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15131,7 +17193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15163,7 +17225,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15195,7 +17257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15227,7 +17289,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15259,7 +17321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15291,7 +17353,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15323,7 +17385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15355,7 +17417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15387,7 +17449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15419,7 +17481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -15451,7 +17513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -15483,7 +17545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -15515,7 +17577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15547,7 +17609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15579,7 +17641,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15611,7 +17673,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15643,7 +17705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15675,7 +17737,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15707,7 +17769,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15739,7 +17801,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15771,7 +17833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15803,7 +17865,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15835,7 +17897,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15867,7 +17929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15899,7 +17961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15931,7 +17993,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -15963,7 +18025,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -15995,7 +18057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16027,7 +18089,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16059,7 +18121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16091,7 +18153,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16123,7 +18185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16155,7 +18217,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16187,7 +18249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16219,7 +18281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16251,7 +18313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -16283,7 +18345,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -16315,7 +18377,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -16347,7 +18409,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -16379,7 +18441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -16411,7 +18473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -16443,7 +18505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -16475,7 +18537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -16507,7 +18569,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -16539,7 +18601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -16571,7 +18633,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -16603,7 +18665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16635,7 +18697,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16667,7 +18729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16699,7 +18761,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -16731,7 +18793,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -16763,7 +18825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -16795,7 +18857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16827,7 +18889,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16859,7 +18921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16891,7 +18953,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16923,7 +18985,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16955,7 +19017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16987,7 +19049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17019,7 +19081,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17051,7 +19113,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17083,7 +19145,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17115,7 +19177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -17147,7 +19209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -17179,7 +19241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -17211,7 +19273,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -17243,7 +19305,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -17275,7 +19337,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -17307,7 +19369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -17339,7 +19401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -17371,7 +19433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -17403,7 +19465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -17435,7 +19497,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -17467,7 +19529,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -17499,7 +19561,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -17531,7 +19593,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -17563,7 +19625,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17595,7 +19657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17627,7 +19689,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17659,7 +19721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17691,7 +19753,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17723,7 +19785,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17755,7 +19817,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17787,7 +19849,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17819,7 +19881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17851,7 +19913,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17883,7 +19945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17915,7 +19977,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -17947,7 +20009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -17979,7 +20041,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -18011,7 +20073,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -18043,7 +20105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -18075,7 +20137,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18107,7 +20169,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18139,7 +20201,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18171,7 +20233,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18203,7 +20265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18235,7 +20297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -18267,7 +20329,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -18299,7 +20361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -18331,7 +20393,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -18363,7 +20425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -18395,7 +20457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -18427,7 +20489,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -18459,7 +20521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -18491,7 +20553,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -18523,7 +20585,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18555,7 +20617,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -18587,7 +20649,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -18619,7 +20681,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -18651,7 +20713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -18683,7 +20745,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -18715,7 +20777,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -18747,7 +20809,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -18779,7 +20841,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -18811,7 +20873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -18843,7 +20905,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -18875,7 +20937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -18907,7 +20969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -18939,7 +21001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18971,7 +21033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -19003,7 +21065,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -19035,7 +21097,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -19067,7 +21129,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -19099,7 +21161,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -19131,7 +21193,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19163,7 +21225,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -19195,7 +21257,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -19227,7 +21289,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -19259,7 +21321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -19291,7 +21353,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -19323,7 +21385,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19355,7 +21417,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -19387,7 +21449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -19419,7 +21481,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -19451,7 +21513,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -19483,7 +21545,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -19515,7 +21577,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -19547,7 +21609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -19579,7 +21641,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -19611,7 +21673,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -19643,7 +21705,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -19675,7 +21737,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -19707,7 +21769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -19739,7 +21801,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -19771,7 +21833,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -19803,7 +21865,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -19835,7 +21897,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -19867,7 +21929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -19899,7 +21961,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -19931,7 +21993,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -19963,7 +22025,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -19995,7 +22057,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -20027,7 +22089,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -20059,7 +22121,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -20091,7 +22153,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -20123,7 +22185,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -20155,7 +22217,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -20187,7 +22249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -20219,7 +22281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -20251,7 +22313,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -20283,7 +22345,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -20315,7 +22377,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -20347,7 +22409,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -20379,7 +22441,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -20411,7 +22473,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -20443,7 +22505,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -20475,7 +22537,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -20507,7 +22569,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -20539,7 +22601,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -20571,7 +22633,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -20603,7 +22665,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -20635,7 +22697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -20667,7 +22729,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -20699,7 +22761,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -20731,7 +22793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -20763,7 +22825,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -20795,7 +22857,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -20827,7 +22889,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -20859,7 +22921,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -20891,7 +22953,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -20923,7 +22985,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -20955,7 +23017,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -20987,7 +23049,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -21019,7 +23081,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -21051,7 +23113,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -21083,7 +23145,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -21115,7 +23177,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -21147,7 +23209,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -21179,7 +23241,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -21211,7 +23273,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -21243,7 +23305,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -21275,7 +23337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -21307,7 +23369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -21339,7 +23401,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -21371,7 +23433,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -21403,7 +23465,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -21435,7 +23497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -21467,7 +23529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -21499,7 +23561,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -21531,7 +23593,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -21563,7 +23625,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -21595,7 +23657,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -21627,7 +23689,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -21659,7 +23721,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -21691,7 +23753,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -21723,7 +23785,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -21755,7 +23817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -21787,7 +23849,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -21819,7 +23881,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -21851,7 +23913,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -21883,7 +23945,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -21915,7 +23977,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -21947,7 +24009,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -21979,7 +24041,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -22011,7 +24073,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -22043,7 +24105,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -22075,7 +24137,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -22107,7 +24169,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -22139,7 +24201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -22171,7 +24233,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -22203,7 +24265,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -22235,7 +24297,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -22267,7 +24329,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -22299,7 +24361,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -22331,7 +24393,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -22363,7 +24425,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -22395,7 +24457,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -22427,7 +24489,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -22459,7 +24521,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -22491,7 +24553,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -22523,7 +24585,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -22555,7 +24617,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -22587,7 +24649,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -22619,7 +24681,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -22651,7 +24713,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -22683,7 +24745,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -22715,7 +24777,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -22747,7 +24809,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -22779,7 +24841,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -22811,7 +24873,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -22843,7 +24905,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -22875,7 +24937,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -22907,7 +24969,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -22939,7 +25001,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -22971,7 +25033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -23003,7 +25065,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -23035,7 +25097,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -23067,7 +25129,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -23099,7 +25161,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -23131,7 +25193,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -23163,7 +25225,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -23195,7 +25257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -23227,7 +25289,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -23259,7 +25321,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -23291,7 +25353,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -23323,7 +25385,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -23355,7 +25417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -23387,7 +25449,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -23419,7 +25481,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -23451,7 +25513,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -23483,7 +25545,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -23515,7 +25577,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -23547,7 +25609,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -23579,7 +25641,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -23611,7 +25673,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -23643,7 +25705,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -23675,7 +25737,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -23707,7 +25769,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -23739,7 +25801,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -23771,7 +25833,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -23803,7 +25865,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -23835,7 +25897,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -23867,7 +25929,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -23899,7 +25961,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -23931,7 +25993,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -23963,7 +26025,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -23995,7 +26057,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -24027,7 +26089,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -24059,7 +26121,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -24091,7 +26153,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -24123,7 +26185,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -24155,7 +26217,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -24187,7 +26249,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -24219,7 +26281,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -24251,7 +26313,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -24283,7 +26345,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -24315,7 +26377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -24347,7 +26409,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -24379,7 +26441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -24411,7 +26473,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -24443,7 +26505,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -24475,7 +26537,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -24507,7 +26569,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -24539,7 +26601,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -24571,7 +26633,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -24603,7 +26665,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -24635,7 +26697,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -24667,7 +26729,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -24699,7 +26761,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -24731,7 +26793,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -24765,8 +26827,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24779,16 +26842,16 @@
       <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.70703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.70703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -24809,7 +26872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -24822,7 +26885,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -24837,7 +26900,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -24854,7 +26917,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -24873,7 +26936,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -24894,7 +26957,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -24926,11 +26989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24945,7 +27008,7 @@
       <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24960,32 +27023,32 @@
       <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.2890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.70703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.70703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.70703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>316</v>
       </c>
@@ -24993,7 +27056,7 @@
         <v>0.83224421483157551</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>317</v>
       </c>
@@ -25001,7 +27064,7 @@
         <v>0.69263043312062555</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>318</v>
       </c>
@@ -25009,7 +27072,7 @@
         <v>0.691842306026063</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>319</v>
       </c>
@@ -25017,7 +27080,7 @@
         <v>4.3327120973394591</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>320</v>
       </c>
@@ -25025,12 +27088,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>326</v>
@@ -25048,7 +27111,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>322</v>
       </c>
@@ -25068,7 +27131,7 @@
         <v>6.0152960514349773E-102</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>323</v>
       </c>
@@ -25084,7 +27147,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>324</v>
       </c>
@@ -25098,8 +27161,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>331</v>
@@ -25126,7 +27189,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>325</v>
       </c>
@@ -25155,7 +27218,7 @@
         <v>47.786766790201781</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>

--- a/ch-4.xlsx
+++ b/ch-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170368CE-C583-4AB3-9DE0-71047CA53737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14867917-DA2F-4AA5-ACF0-C9A6F8E111A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3780" yWindow="2490" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -1682,7 +1682,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mpg!$E$1</c:f>
+              <c:f>mpg!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1715,7 +1715,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>mpg!$E$2:$E$393</c:f>
+              <c:f>mpg!$F$2:$F$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
@@ -3164,7 +3164,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mpg!$E$1</c:f>
+              <c:f>mpg!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3197,7 +3197,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mpg!$F$2:$F$393</c:f>
+              <c:f>mpg!$E$2:$E$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
@@ -4382,7 +4382,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mpg!$E$2:$E$393</c:f>
+              <c:f>mpg!$F$2:$F$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
@@ -5947,7 +5947,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mpg!$F$1</c:f>
+              <c:f>mpg!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5980,7 +5980,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mpg!$E$2:$E$393</c:f>
+              <c:f>mpg!$F$2:$F$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
@@ -7165,7 +7165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mpg!$F$2:$F$393</c:f>
+              <c:f>mpg!$E$2:$E$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
@@ -8725,7 +8725,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mpg!$E$1</c:f>
+              <c:f>mpg!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8866,7 +8866,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>mpg!$F$2:$F$393</c:f>
+              <c:f>mpg!$E$2:$E$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
@@ -10051,7 +10051,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mpg!$E$2:$E$393</c:f>
+              <c:f>mpg!$F$2:$F$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="392"/>
@@ -13927,8 +13927,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="cylinders"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="displacement"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="horsepower"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="weight"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="mpg"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="weight"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="acceleration"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="model.year"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="origin"/>
@@ -14237,16 +14237,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A353" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G368" sqref="G368"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="13.296875" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" customWidth="1"/>
-    <col min="8" max="8" width="12.296875" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" customWidth="1"/>
+    <col min="9" max="9" width="12.296875" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="31.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -14263,10 +14266,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -14295,10 +14298,10 @@
         <v>130</v>
       </c>
       <c r="E2">
+        <v>3504</v>
+      </c>
+      <c r="F2">
         <v>18</v>
-      </c>
-      <c r="F2">
-        <v>3504</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -14327,10 +14330,10 @@
         <v>165</v>
       </c>
       <c r="E3">
+        <v>3693</v>
+      </c>
+      <c r="F3">
         <v>15</v>
-      </c>
-      <c r="F3">
-        <v>3693</v>
       </c>
       <c r="G3">
         <v>11.5</v>
@@ -14359,10 +14362,10 @@
         <v>150</v>
       </c>
       <c r="E4">
+        <v>3436</v>
+      </c>
+      <c r="F4">
         <v>18</v>
-      </c>
-      <c r="F4">
-        <v>3436</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -14391,10 +14394,10 @@
         <v>150</v>
       </c>
       <c r="E5">
+        <v>3433</v>
+      </c>
+      <c r="F5">
         <v>16</v>
-      </c>
-      <c r="F5">
-        <v>3433</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -14423,10 +14426,10 @@
         <v>140</v>
       </c>
       <c r="E6">
+        <v>3449</v>
+      </c>
+      <c r="F6">
         <v>17</v>
-      </c>
-      <c r="F6">
-        <v>3449</v>
       </c>
       <c r="G6">
         <v>10.5</v>
@@ -14455,10 +14458,10 @@
         <v>198</v>
       </c>
       <c r="E7">
+        <v>4341</v>
+      </c>
+      <c r="F7">
         <v>15</v>
-      </c>
-      <c r="F7">
-        <v>4341</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -14487,10 +14490,10 @@
         <v>220</v>
       </c>
       <c r="E8">
+        <v>4354</v>
+      </c>
+      <c r="F8">
         <v>14</v>
-      </c>
-      <c r="F8">
-        <v>4354</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -14519,10 +14522,10 @@
         <v>215</v>
       </c>
       <c r="E9">
+        <v>4312</v>
+      </c>
+      <c r="F9">
         <v>14</v>
-      </c>
-      <c r="F9">
-        <v>4312</v>
       </c>
       <c r="G9">
         <v>8.5</v>
@@ -14551,10 +14554,10 @@
         <v>225</v>
       </c>
       <c r="E10">
+        <v>4425</v>
+      </c>
+      <c r="F10">
         <v>14</v>
-      </c>
-      <c r="F10">
-        <v>4425</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -14583,10 +14586,10 @@
         <v>190</v>
       </c>
       <c r="E11">
+        <v>3850</v>
+      </c>
+      <c r="F11">
         <v>15</v>
-      </c>
-      <c r="F11">
-        <v>3850</v>
       </c>
       <c r="G11">
         <v>8.5</v>
@@ -14615,10 +14618,10 @@
         <v>170</v>
       </c>
       <c r="E12">
+        <v>3563</v>
+      </c>
+      <c r="F12">
         <v>15</v>
-      </c>
-      <c r="F12">
-        <v>3563</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -14647,10 +14650,10 @@
         <v>160</v>
       </c>
       <c r="E13">
+        <v>3609</v>
+      </c>
+      <c r="F13">
         <v>14</v>
-      </c>
-      <c r="F13">
-        <v>3609</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -14679,10 +14682,10 @@
         <v>150</v>
       </c>
       <c r="E14">
+        <v>3761</v>
+      </c>
+      <c r="F14">
         <v>15</v>
-      </c>
-      <c r="F14">
-        <v>3761</v>
       </c>
       <c r="G14">
         <v>9.5</v>
@@ -14711,10 +14714,10 @@
         <v>225</v>
       </c>
       <c r="E15">
+        <v>3086</v>
+      </c>
+      <c r="F15">
         <v>14</v>
-      </c>
-      <c r="F15">
-        <v>3086</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -14743,10 +14746,10 @@
         <v>95</v>
       </c>
       <c r="E16">
+        <v>2372</v>
+      </c>
+      <c r="F16">
         <v>24</v>
-      </c>
-      <c r="F16">
-        <v>2372</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -14775,10 +14778,10 @@
         <v>95</v>
       </c>
       <c r="E17">
+        <v>2833</v>
+      </c>
+      <c r="F17">
         <v>22</v>
-      </c>
-      <c r="F17">
-        <v>2833</v>
       </c>
       <c r="G17">
         <v>15.5</v>
@@ -14807,10 +14810,10 @@
         <v>97</v>
       </c>
       <c r="E18">
+        <v>2774</v>
+      </c>
+      <c r="F18">
         <v>18</v>
-      </c>
-      <c r="F18">
-        <v>2774</v>
       </c>
       <c r="G18">
         <v>15.5</v>
@@ -14839,10 +14842,10 @@
         <v>85</v>
       </c>
       <c r="E19">
+        <v>2587</v>
+      </c>
+      <c r="F19">
         <v>21</v>
-      </c>
-      <c r="F19">
-        <v>2587</v>
       </c>
       <c r="G19">
         <v>16</v>
@@ -14871,10 +14874,10 @@
         <v>88</v>
       </c>
       <c r="E20">
+        <v>2130</v>
+      </c>
+      <c r="F20">
         <v>27</v>
-      </c>
-      <c r="F20">
-        <v>2130</v>
       </c>
       <c r="G20">
         <v>14.5</v>
@@ -14903,10 +14906,10 @@
         <v>46</v>
       </c>
       <c r="E21">
+        <v>1835</v>
+      </c>
+      <c r="F21">
         <v>26</v>
-      </c>
-      <c r="F21">
-        <v>1835</v>
       </c>
       <c r="G21">
         <v>20.5</v>
@@ -14935,10 +14938,10 @@
         <v>87</v>
       </c>
       <c r="E22">
+        <v>2672</v>
+      </c>
+      <c r="F22">
         <v>25</v>
-      </c>
-      <c r="F22">
-        <v>2672</v>
       </c>
       <c r="G22">
         <v>17.5</v>
@@ -14967,10 +14970,10 @@
         <v>90</v>
       </c>
       <c r="E23">
+        <v>2430</v>
+      </c>
+      <c r="F23">
         <v>24</v>
-      </c>
-      <c r="F23">
-        <v>2430</v>
       </c>
       <c r="G23">
         <v>14.5</v>
@@ -14999,10 +15002,10 @@
         <v>95</v>
       </c>
       <c r="E24">
+        <v>2375</v>
+      </c>
+      <c r="F24">
         <v>25</v>
-      </c>
-      <c r="F24">
-        <v>2375</v>
       </c>
       <c r="G24">
         <v>17.5</v>
@@ -15031,10 +15034,10 @@
         <v>113</v>
       </c>
       <c r="E25">
+        <v>2234</v>
+      </c>
+      <c r="F25">
         <v>26</v>
-      </c>
-      <c r="F25">
-        <v>2234</v>
       </c>
       <c r="G25">
         <v>12.5</v>
@@ -15063,10 +15066,10 @@
         <v>90</v>
       </c>
       <c r="E26">
+        <v>2648</v>
+      </c>
+      <c r="F26">
         <v>21</v>
-      </c>
-      <c r="F26">
-        <v>2648</v>
       </c>
       <c r="G26">
         <v>15</v>
@@ -15095,10 +15098,10 @@
         <v>215</v>
       </c>
       <c r="E27">
+        <v>4615</v>
+      </c>
+      <c r="F27">
         <v>10</v>
-      </c>
-      <c r="F27">
-        <v>4615</v>
       </c>
       <c r="G27">
         <v>14</v>
@@ -15127,10 +15130,10 @@
         <v>200</v>
       </c>
       <c r="E28">
+        <v>4376</v>
+      </c>
+      <c r="F28">
         <v>10</v>
-      </c>
-      <c r="F28">
-        <v>4376</v>
       </c>
       <c r="G28">
         <v>15</v>
@@ -15159,10 +15162,10 @@
         <v>210</v>
       </c>
       <c r="E29">
+        <v>4382</v>
+      </c>
+      <c r="F29">
         <v>11</v>
-      </c>
-      <c r="F29">
-        <v>4382</v>
       </c>
       <c r="G29">
         <v>13.5</v>
@@ -15191,10 +15194,10 @@
         <v>193</v>
       </c>
       <c r="E30">
+        <v>4732</v>
+      </c>
+      <c r="F30">
         <v>9</v>
-      </c>
-      <c r="F30">
-        <v>4732</v>
       </c>
       <c r="G30">
         <v>18.5</v>
@@ -15223,10 +15226,10 @@
         <v>88</v>
       </c>
       <c r="E31">
+        <v>2130</v>
+      </c>
+      <c r="F31">
         <v>27</v>
-      </c>
-      <c r="F31">
-        <v>2130</v>
       </c>
       <c r="G31">
         <v>14.5</v>
@@ -15255,10 +15258,10 @@
         <v>90</v>
       </c>
       <c r="E32">
+        <v>2264</v>
+      </c>
+      <c r="F32">
         <v>28</v>
-      </c>
-      <c r="F32">
-        <v>2264</v>
       </c>
       <c r="G32">
         <v>15.5</v>
@@ -15287,10 +15290,10 @@
         <v>95</v>
       </c>
       <c r="E33">
+        <v>2228</v>
+      </c>
+      <c r="F33">
         <v>25</v>
-      </c>
-      <c r="F33">
-        <v>2228</v>
       </c>
       <c r="G33">
         <v>14</v>
@@ -15319,10 +15322,10 @@
         <v>100</v>
       </c>
       <c r="E34">
+        <v>2634</v>
+      </c>
+      <c r="F34">
         <v>19</v>
-      </c>
-      <c r="F34">
-        <v>2634</v>
       </c>
       <c r="G34">
         <v>13</v>
@@ -15351,10 +15354,10 @@
         <v>105</v>
       </c>
       <c r="E35">
+        <v>3439</v>
+      </c>
+      <c r="F35">
         <v>16</v>
-      </c>
-      <c r="F35">
-        <v>3439</v>
       </c>
       <c r="G35">
         <v>15.5</v>
@@ -15383,10 +15386,10 @@
         <v>100</v>
       </c>
       <c r="E36">
+        <v>3329</v>
+      </c>
+      <c r="F36">
         <v>17</v>
-      </c>
-      <c r="F36">
-        <v>3329</v>
       </c>
       <c r="G36">
         <v>15.5</v>
@@ -15415,10 +15418,10 @@
         <v>88</v>
       </c>
       <c r="E37">
+        <v>3302</v>
+      </c>
+      <c r="F37">
         <v>19</v>
-      </c>
-      <c r="F37">
-        <v>3302</v>
       </c>
       <c r="G37">
         <v>15.5</v>
@@ -15447,10 +15450,10 @@
         <v>100</v>
       </c>
       <c r="E38">
+        <v>3288</v>
+      </c>
+      <c r="F38">
         <v>18</v>
-      </c>
-      <c r="F38">
-        <v>3288</v>
       </c>
       <c r="G38">
         <v>15.5</v>
@@ -15479,10 +15482,10 @@
         <v>165</v>
       </c>
       <c r="E39">
+        <v>4209</v>
+      </c>
+      <c r="F39">
         <v>14</v>
-      </c>
-      <c r="F39">
-        <v>4209</v>
       </c>
       <c r="G39">
         <v>12</v>
@@ -15511,10 +15514,10 @@
         <v>175</v>
       </c>
       <c r="E40">
+        <v>4464</v>
+      </c>
+      <c r="F40">
         <v>14</v>
-      </c>
-      <c r="F40">
-        <v>4464</v>
       </c>
       <c r="G40">
         <v>11.5</v>
@@ -15543,10 +15546,10 @@
         <v>153</v>
       </c>
       <c r="E41">
+        <v>4154</v>
+      </c>
+      <c r="F41">
         <v>14</v>
-      </c>
-      <c r="F41">
-        <v>4154</v>
       </c>
       <c r="G41">
         <v>13.5</v>
@@ -15575,10 +15578,10 @@
         <v>150</v>
       </c>
       <c r="E42">
+        <v>4096</v>
+      </c>
+      <c r="F42">
         <v>14</v>
-      </c>
-      <c r="F42">
-        <v>4096</v>
       </c>
       <c r="G42">
         <v>13</v>
@@ -15607,10 +15610,10 @@
         <v>180</v>
       </c>
       <c r="E43">
+        <v>4955</v>
+      </c>
+      <c r="F43">
         <v>12</v>
-      </c>
-      <c r="F43">
-        <v>4955</v>
       </c>
       <c r="G43">
         <v>11.5</v>
@@ -15639,10 +15642,10 @@
         <v>170</v>
       </c>
       <c r="E44">
+        <v>4746</v>
+      </c>
+      <c r="F44">
         <v>13</v>
-      </c>
-      <c r="F44">
-        <v>4746</v>
       </c>
       <c r="G44">
         <v>12</v>
@@ -15671,10 +15674,10 @@
         <v>175</v>
       </c>
       <c r="E45">
+        <v>5140</v>
+      </c>
+      <c r="F45">
         <v>13</v>
-      </c>
-      <c r="F45">
-        <v>5140</v>
       </c>
       <c r="G45">
         <v>12</v>
@@ -15703,10 +15706,10 @@
         <v>110</v>
       </c>
       <c r="E46">
+        <v>2962</v>
+      </c>
+      <c r="F46">
         <v>18</v>
-      </c>
-      <c r="F46">
-        <v>2962</v>
       </c>
       <c r="G46">
         <v>13.5</v>
@@ -15735,10 +15738,10 @@
         <v>72</v>
       </c>
       <c r="E47">
+        <v>2408</v>
+      </c>
+      <c r="F47">
         <v>22</v>
-      </c>
-      <c r="F47">
-        <v>2408</v>
       </c>
       <c r="G47">
         <v>19</v>
@@ -15767,10 +15770,10 @@
         <v>100</v>
       </c>
       <c r="E48">
+        <v>3282</v>
+      </c>
+      <c r="F48">
         <v>19</v>
-      </c>
-      <c r="F48">
-        <v>3282</v>
       </c>
       <c r="G48">
         <v>15</v>
@@ -15799,10 +15802,10 @@
         <v>88</v>
       </c>
       <c r="E49">
+        <v>3139</v>
+      </c>
+      <c r="F49">
         <v>18</v>
-      </c>
-      <c r="F49">
-        <v>3139</v>
       </c>
       <c r="G49">
         <v>14.5</v>
@@ -15831,10 +15834,10 @@
         <v>86</v>
       </c>
       <c r="E50">
+        <v>2220</v>
+      </c>
+      <c r="F50">
         <v>23</v>
-      </c>
-      <c r="F50">
-        <v>2220</v>
       </c>
       <c r="G50">
         <v>14</v>
@@ -15863,10 +15866,10 @@
         <v>90</v>
       </c>
       <c r="E51">
+        <v>2123</v>
+      </c>
+      <c r="F51">
         <v>28</v>
-      </c>
-      <c r="F51">
-        <v>2123</v>
       </c>
       <c r="G51">
         <v>14</v>
@@ -15895,10 +15898,10 @@
         <v>70</v>
       </c>
       <c r="E52">
+        <v>2074</v>
+      </c>
+      <c r="F52">
         <v>30</v>
-      </c>
-      <c r="F52">
-        <v>2074</v>
       </c>
       <c r="G52">
         <v>19.5</v>
@@ -15927,10 +15930,10 @@
         <v>76</v>
       </c>
       <c r="E53">
+        <v>2065</v>
+      </c>
+      <c r="F53">
         <v>30</v>
-      </c>
-      <c r="F53">
-        <v>2065</v>
       </c>
       <c r="G53">
         <v>14.5</v>
@@ -15959,10 +15962,10 @@
         <v>65</v>
       </c>
       <c r="E54">
+        <v>1773</v>
+      </c>
+      <c r="F54">
         <v>31</v>
-      </c>
-      <c r="F54">
-        <v>1773</v>
       </c>
       <c r="G54">
         <v>19</v>
@@ -15991,10 +15994,10 @@
         <v>69</v>
       </c>
       <c r="E55">
+        <v>1613</v>
+      </c>
+      <c r="F55">
         <v>35</v>
-      </c>
-      <c r="F55">
-        <v>1613</v>
       </c>
       <c r="G55">
         <v>18</v>
@@ -16023,10 +16026,10 @@
         <v>60</v>
       </c>
       <c r="E56">
+        <v>1834</v>
+      </c>
+      <c r="F56">
         <v>27</v>
-      </c>
-      <c r="F56">
-        <v>1834</v>
       </c>
       <c r="G56">
         <v>19</v>
@@ -16055,10 +16058,10 @@
         <v>70</v>
       </c>
       <c r="E57">
+        <v>1955</v>
+      </c>
+      <c r="F57">
         <v>26</v>
-      </c>
-      <c r="F57">
-        <v>1955</v>
       </c>
       <c r="G57">
         <v>20.5</v>
@@ -16087,10 +16090,10 @@
         <v>95</v>
       </c>
       <c r="E58">
+        <v>2278</v>
+      </c>
+      <c r="F58">
         <v>24</v>
-      </c>
-      <c r="F58">
-        <v>2278</v>
       </c>
       <c r="G58">
         <v>15.5</v>
@@ -16119,10 +16122,10 @@
         <v>80</v>
       </c>
       <c r="E59">
+        <v>2126</v>
+      </c>
+      <c r="F59">
         <v>25</v>
-      </c>
-      <c r="F59">
-        <v>2126</v>
       </c>
       <c r="G59">
         <v>17</v>
@@ -16151,10 +16154,10 @@
         <v>54</v>
       </c>
       <c r="E60">
+        <v>2254</v>
+      </c>
+      <c r="F60">
         <v>23</v>
-      </c>
-      <c r="F60">
-        <v>2254</v>
       </c>
       <c r="G60">
         <v>23.5</v>
@@ -16183,10 +16186,10 @@
         <v>90</v>
       </c>
       <c r="E61">
+        <v>2408</v>
+      </c>
+      <c r="F61">
         <v>20</v>
-      </c>
-      <c r="F61">
-        <v>2408</v>
       </c>
       <c r="G61">
         <v>19.5</v>
@@ -16215,10 +16218,10 @@
         <v>86</v>
       </c>
       <c r="E62">
+        <v>2226</v>
+      </c>
+      <c r="F62">
         <v>21</v>
-      </c>
-      <c r="F62">
-        <v>2226</v>
       </c>
       <c r="G62">
         <v>16.5</v>
@@ -16247,10 +16250,10 @@
         <v>165</v>
       </c>
       <c r="E63">
+        <v>4274</v>
+      </c>
+      <c r="F63">
         <v>13</v>
-      </c>
-      <c r="F63">
-        <v>4274</v>
       </c>
       <c r="G63">
         <v>12</v>
@@ -16279,10 +16282,10 @@
         <v>175</v>
       </c>
       <c r="E64">
+        <v>4385</v>
+      </c>
+      <c r="F64">
         <v>14</v>
-      </c>
-      <c r="F64">
-        <v>4385</v>
       </c>
       <c r="G64">
         <v>12</v>
@@ -16311,10 +16314,10 @@
         <v>150</v>
       </c>
       <c r="E65">
+        <v>4135</v>
+      </c>
+      <c r="F65">
         <v>15</v>
-      </c>
-      <c r="F65">
-        <v>4135</v>
       </c>
       <c r="G65">
         <v>13.5</v>
@@ -16343,10 +16346,10 @@
         <v>153</v>
       </c>
       <c r="E66">
+        <v>4129</v>
+      </c>
+      <c r="F66">
         <v>14</v>
-      </c>
-      <c r="F66">
-        <v>4129</v>
       </c>
       <c r="G66">
         <v>13</v>
@@ -16375,10 +16378,10 @@
         <v>150</v>
       </c>
       <c r="E67">
+        <v>3672</v>
+      </c>
+      <c r="F67">
         <v>17</v>
-      </c>
-      <c r="F67">
-        <v>3672</v>
       </c>
       <c r="G67">
         <v>11.5</v>
@@ -16407,10 +16410,10 @@
         <v>208</v>
       </c>
       <c r="E68">
+        <v>4633</v>
+      </c>
+      <c r="F68">
         <v>11</v>
-      </c>
-      <c r="F68">
-        <v>4633</v>
       </c>
       <c r="G68">
         <v>11</v>
@@ -16439,10 +16442,10 @@
         <v>155</v>
       </c>
       <c r="E69">
+        <v>4502</v>
+      </c>
+      <c r="F69">
         <v>13</v>
-      </c>
-      <c r="F69">
-        <v>4502</v>
       </c>
       <c r="G69">
         <v>13.5</v>
@@ -16471,10 +16474,10 @@
         <v>160</v>
       </c>
       <c r="E70">
+        <v>4456</v>
+      </c>
+      <c r="F70">
         <v>12</v>
-      </c>
-      <c r="F70">
-        <v>4456</v>
       </c>
       <c r="G70">
         <v>13.5</v>
@@ -16503,10 +16506,10 @@
         <v>190</v>
       </c>
       <c r="E71">
+        <v>4422</v>
+      </c>
+      <c r="F71">
         <v>13</v>
-      </c>
-      <c r="F71">
-        <v>4422</v>
       </c>
       <c r="G71">
         <v>12.5</v>
@@ -16535,10 +16538,10 @@
         <v>97</v>
       </c>
       <c r="E72">
+        <v>2330</v>
+      </c>
+      <c r="F72">
         <v>19</v>
-      </c>
-      <c r="F72">
-        <v>2330</v>
       </c>
       <c r="G72">
         <v>13.5</v>
@@ -16567,10 +16570,10 @@
         <v>150</v>
       </c>
       <c r="E73">
+        <v>3892</v>
+      </c>
+      <c r="F73">
         <v>15</v>
-      </c>
-      <c r="F73">
-        <v>3892</v>
       </c>
       <c r="G73">
         <v>12.5</v>
@@ -16599,10 +16602,10 @@
         <v>130</v>
       </c>
       <c r="E74">
+        <v>4098</v>
+      </c>
+      <c r="F74">
         <v>13</v>
-      </c>
-      <c r="F74">
-        <v>4098</v>
       </c>
       <c r="G74">
         <v>14</v>
@@ -16631,10 +16634,10 @@
         <v>140</v>
       </c>
       <c r="E75">
+        <v>4294</v>
+      </c>
+      <c r="F75">
         <v>13</v>
-      </c>
-      <c r="F75">
-        <v>4294</v>
       </c>
       <c r="G75">
         <v>16</v>
@@ -16663,10 +16666,10 @@
         <v>150</v>
       </c>
       <c r="E76">
+        <v>4077</v>
+      </c>
+      <c r="F76">
         <v>14</v>
-      </c>
-      <c r="F76">
-        <v>4077</v>
       </c>
       <c r="G76">
         <v>14</v>
@@ -16695,10 +16698,10 @@
         <v>112</v>
       </c>
       <c r="E77">
+        <v>2933</v>
+      </c>
+      <c r="F77">
         <v>18</v>
-      </c>
-      <c r="F77">
-        <v>2933</v>
       </c>
       <c r="G77">
         <v>14.5</v>
@@ -16727,10 +16730,10 @@
         <v>76</v>
       </c>
       <c r="E78">
+        <v>2511</v>
+      </c>
+      <c r="F78">
         <v>22</v>
-      </c>
-      <c r="F78">
-        <v>2511</v>
       </c>
       <c r="G78">
         <v>18</v>
@@ -16759,10 +16762,10 @@
         <v>87</v>
       </c>
       <c r="E79">
+        <v>2979</v>
+      </c>
+      <c r="F79">
         <v>21</v>
-      </c>
-      <c r="F79">
-        <v>2979</v>
       </c>
       <c r="G79">
         <v>19.5</v>
@@ -16791,10 +16794,10 @@
         <v>69</v>
       </c>
       <c r="E80">
+        <v>2189</v>
+      </c>
+      <c r="F80">
         <v>26</v>
-      </c>
-      <c r="F80">
-        <v>2189</v>
       </c>
       <c r="G80">
         <v>18</v>
@@ -16823,10 +16826,10 @@
         <v>86</v>
       </c>
       <c r="E81">
+        <v>2395</v>
+      </c>
+      <c r="F81">
         <v>22</v>
-      </c>
-      <c r="F81">
-        <v>2395</v>
       </c>
       <c r="G81">
         <v>16</v>
@@ -16855,10 +16858,10 @@
         <v>92</v>
       </c>
       <c r="E82">
+        <v>2288</v>
+      </c>
+      <c r="F82">
         <v>28</v>
-      </c>
-      <c r="F82">
-        <v>2288</v>
       </c>
       <c r="G82">
         <v>17</v>
@@ -16887,10 +16890,10 @@
         <v>97</v>
       </c>
       <c r="E83">
+        <v>2506</v>
+      </c>
+      <c r="F83">
         <v>23</v>
-      </c>
-      <c r="F83">
-        <v>2506</v>
       </c>
       <c r="G83">
         <v>14.5</v>
@@ -16919,10 +16922,10 @@
         <v>80</v>
       </c>
       <c r="E84">
+        <v>2164</v>
+      </c>
+      <c r="F84">
         <v>28</v>
-      </c>
-      <c r="F84">
-        <v>2164</v>
       </c>
       <c r="G84">
         <v>15</v>
@@ -16951,10 +16954,10 @@
         <v>88</v>
       </c>
       <c r="E85">
+        <v>2100</v>
+      </c>
+      <c r="F85">
         <v>27</v>
-      </c>
-      <c r="F85">
-        <v>2100</v>
       </c>
       <c r="G85">
         <v>16.5</v>
@@ -16983,10 +16986,10 @@
         <v>175</v>
       </c>
       <c r="E86">
+        <v>4100</v>
+      </c>
+      <c r="F86">
         <v>13</v>
-      </c>
-      <c r="F86">
-        <v>4100</v>
       </c>
       <c r="G86">
         <v>13</v>
@@ -17015,10 +17018,10 @@
         <v>150</v>
       </c>
       <c r="E87">
+        <v>3672</v>
+      </c>
+      <c r="F87">
         <v>14</v>
-      </c>
-      <c r="F87">
-        <v>3672</v>
       </c>
       <c r="G87">
         <v>11.5</v>
@@ -17047,10 +17050,10 @@
         <v>145</v>
       </c>
       <c r="E88">
+        <v>3988</v>
+      </c>
+      <c r="F88">
         <v>13</v>
-      </c>
-      <c r="F88">
-        <v>3988</v>
       </c>
       <c r="G88">
         <v>13</v>
@@ -17079,10 +17082,10 @@
         <v>137</v>
       </c>
       <c r="E89">
+        <v>4042</v>
+      </c>
+      <c r="F89">
         <v>14</v>
-      </c>
-      <c r="F89">
-        <v>4042</v>
       </c>
       <c r="G89">
         <v>14.5</v>
@@ -17111,10 +17114,10 @@
         <v>150</v>
       </c>
       <c r="E90">
+        <v>3777</v>
+      </c>
+      <c r="F90">
         <v>15</v>
-      </c>
-      <c r="F90">
-        <v>3777</v>
       </c>
       <c r="G90">
         <v>12.5</v>
@@ -17143,10 +17146,10 @@
         <v>198</v>
       </c>
       <c r="E91">
+        <v>4952</v>
+      </c>
+      <c r="F91">
         <v>12</v>
-      </c>
-      <c r="F91">
-        <v>4952</v>
       </c>
       <c r="G91">
         <v>11.5</v>
@@ -17175,10 +17178,10 @@
         <v>150</v>
       </c>
       <c r="E92">
+        <v>4464</v>
+      </c>
+      <c r="F92">
         <v>13</v>
-      </c>
-      <c r="F92">
-        <v>4464</v>
       </c>
       <c r="G92">
         <v>12</v>
@@ -17207,10 +17210,10 @@
         <v>158</v>
       </c>
       <c r="E93">
+        <v>4363</v>
+      </c>
+      <c r="F93">
         <v>13</v>
-      </c>
-      <c r="F93">
-        <v>4363</v>
       </c>
       <c r="G93">
         <v>13</v>
@@ -17239,10 +17242,10 @@
         <v>150</v>
       </c>
       <c r="E94">
+        <v>4237</v>
+      </c>
+      <c r="F94">
         <v>14</v>
-      </c>
-      <c r="F94">
-        <v>4237</v>
       </c>
       <c r="G94">
         <v>14.5</v>
@@ -17271,10 +17274,10 @@
         <v>215</v>
       </c>
       <c r="E95">
+        <v>4735</v>
+      </c>
+      <c r="F95">
         <v>13</v>
-      </c>
-      <c r="F95">
-        <v>4735</v>
       </c>
       <c r="G95">
         <v>11</v>
@@ -17303,10 +17306,10 @@
         <v>225</v>
       </c>
       <c r="E96">
+        <v>4951</v>
+      </c>
+      <c r="F96">
         <v>12</v>
-      </c>
-      <c r="F96">
-        <v>4951</v>
       </c>
       <c r="G96">
         <v>11</v>
@@ -17335,10 +17338,10 @@
         <v>175</v>
       </c>
       <c r="E97">
+        <v>3821</v>
+      </c>
+      <c r="F97">
         <v>13</v>
-      </c>
-      <c r="F97">
-        <v>3821</v>
       </c>
       <c r="G97">
         <v>11</v>
@@ -17367,10 +17370,10 @@
         <v>105</v>
       </c>
       <c r="E98">
+        <v>3121</v>
+      </c>
+      <c r="F98">
         <v>18</v>
-      </c>
-      <c r="F98">
-        <v>3121</v>
       </c>
       <c r="G98">
         <v>16.5</v>
@@ -17399,10 +17402,10 @@
         <v>100</v>
       </c>
       <c r="E99">
+        <v>3278</v>
+      </c>
+      <c r="F99">
         <v>16</v>
-      </c>
-      <c r="F99">
-        <v>3278</v>
       </c>
       <c r="G99">
         <v>18</v>
@@ -17431,10 +17434,10 @@
         <v>100</v>
       </c>
       <c r="E100">
+        <v>2945</v>
+      </c>
+      <c r="F100">
         <v>18</v>
-      </c>
-      <c r="F100">
-        <v>2945</v>
       </c>
       <c r="G100">
         <v>16</v>
@@ -17463,10 +17466,10 @@
         <v>88</v>
       </c>
       <c r="E101">
+        <v>3021</v>
+      </c>
+      <c r="F101">
         <v>18</v>
-      </c>
-      <c r="F101">
-        <v>3021</v>
       </c>
       <c r="G101">
         <v>16.5</v>
@@ -17495,10 +17498,10 @@
         <v>95</v>
       </c>
       <c r="E102">
+        <v>2904</v>
+      </c>
+      <c r="F102">
         <v>23</v>
-      </c>
-      <c r="F102">
-        <v>2904</v>
       </c>
       <c r="G102">
         <v>16</v>
@@ -17527,10 +17530,10 @@
         <v>46</v>
       </c>
       <c r="E103">
+        <v>1950</v>
+      </c>
+      <c r="F103">
         <v>26</v>
-      </c>
-      <c r="F103">
-        <v>1950</v>
       </c>
       <c r="G103">
         <v>21</v>
@@ -17559,10 +17562,10 @@
         <v>150</v>
       </c>
       <c r="E104">
+        <v>4997</v>
+      </c>
+      <c r="F104">
         <v>11</v>
-      </c>
-      <c r="F104">
-        <v>4997</v>
       </c>
       <c r="G104">
         <v>14</v>
@@ -17591,10 +17594,10 @@
         <v>167</v>
       </c>
       <c r="E105">
+        <v>4906</v>
+      </c>
+      <c r="F105">
         <v>12</v>
-      </c>
-      <c r="F105">
-        <v>4906</v>
       </c>
       <c r="G105">
         <v>12.5</v>
@@ -17623,10 +17626,10 @@
         <v>170</v>
       </c>
       <c r="E106">
+        <v>4654</v>
+      </c>
+      <c r="F106">
         <v>13</v>
-      </c>
-      <c r="F106">
-        <v>4654</v>
       </c>
       <c r="G106">
         <v>13</v>
@@ -17655,10 +17658,10 @@
         <v>180</v>
       </c>
       <c r="E107">
+        <v>4499</v>
+      </c>
+      <c r="F107">
         <v>12</v>
-      </c>
-      <c r="F107">
-        <v>4499</v>
       </c>
       <c r="G107">
         <v>12.5</v>
@@ -17687,10 +17690,10 @@
         <v>100</v>
       </c>
       <c r="E108">
+        <v>2789</v>
+      </c>
+      <c r="F108">
         <v>18</v>
-      </c>
-      <c r="F108">
-        <v>2789</v>
       </c>
       <c r="G108">
         <v>15</v>
@@ -17719,10 +17722,10 @@
         <v>88</v>
       </c>
       <c r="E109">
+        <v>2279</v>
+      </c>
+      <c r="F109">
         <v>20</v>
-      </c>
-      <c r="F109">
-        <v>2279</v>
       </c>
       <c r="G109">
         <v>19</v>
@@ -17751,10 +17754,10 @@
         <v>72</v>
       </c>
       <c r="E110">
+        <v>2401</v>
+      </c>
+      <c r="F110">
         <v>21</v>
-      </c>
-      <c r="F110">
-        <v>2401</v>
       </c>
       <c r="G110">
         <v>19.5</v>
@@ -17783,10 +17786,10 @@
         <v>94</v>
       </c>
       <c r="E111">
+        <v>2379</v>
+      </c>
+      <c r="F111">
         <v>22</v>
-      </c>
-      <c r="F111">
-        <v>2379</v>
       </c>
       <c r="G111">
         <v>16.5</v>
@@ -17815,10 +17818,10 @@
         <v>90</v>
       </c>
       <c r="E112">
+        <v>2124</v>
+      </c>
+      <c r="F112">
         <v>18</v>
-      </c>
-      <c r="F112">
-        <v>2124</v>
       </c>
       <c r="G112">
         <v>13.5</v>
@@ -17847,10 +17850,10 @@
         <v>85</v>
       </c>
       <c r="E113">
+        <v>2310</v>
+      </c>
+      <c r="F113">
         <v>19</v>
-      </c>
-      <c r="F113">
-        <v>2310</v>
       </c>
       <c r="G113">
         <v>18.5</v>
@@ -17879,10 +17882,10 @@
         <v>107</v>
       </c>
       <c r="E114">
+        <v>2472</v>
+      </c>
+      <c r="F114">
         <v>21</v>
-      </c>
-      <c r="F114">
-        <v>2472</v>
       </c>
       <c r="G114">
         <v>14</v>
@@ -17911,10 +17914,10 @@
         <v>90</v>
       </c>
       <c r="E115">
+        <v>2265</v>
+      </c>
+      <c r="F115">
         <v>26</v>
-      </c>
-      <c r="F115">
-        <v>2265</v>
       </c>
       <c r="G115">
         <v>15.5</v>
@@ -17943,10 +17946,10 @@
         <v>145</v>
       </c>
       <c r="E116">
+        <v>4082</v>
+      </c>
+      <c r="F116">
         <v>15</v>
-      </c>
-      <c r="F116">
-        <v>4082</v>
       </c>
       <c r="G116">
         <v>13</v>
@@ -17975,10 +17978,10 @@
         <v>230</v>
       </c>
       <c r="E117">
+        <v>4278</v>
+      </c>
+      <c r="F117">
         <v>16</v>
-      </c>
-      <c r="F117">
-        <v>4278</v>
       </c>
       <c r="G117">
         <v>9.5</v>
@@ -18007,10 +18010,10 @@
         <v>49</v>
       </c>
       <c r="E118">
+        <v>1867</v>
+      </c>
+      <c r="F118">
         <v>29</v>
-      </c>
-      <c r="F118">
-        <v>1867</v>
       </c>
       <c r="G118">
         <v>19.5</v>
@@ -18039,10 +18042,10 @@
         <v>75</v>
       </c>
       <c r="E119">
+        <v>2158</v>
+      </c>
+      <c r="F119">
         <v>24</v>
-      </c>
-      <c r="F119">
-        <v>2158</v>
       </c>
       <c r="G119">
         <v>15.5</v>
@@ -18071,10 +18074,10 @@
         <v>91</v>
       </c>
       <c r="E120">
+        <v>2582</v>
+      </c>
+      <c r="F120">
         <v>20</v>
-      </c>
-      <c r="F120">
-        <v>2582</v>
       </c>
       <c r="G120">
         <v>14</v>
@@ -18103,10 +18106,10 @@
         <v>112</v>
       </c>
       <c r="E121">
+        <v>2868</v>
+      </c>
+      <c r="F121">
         <v>19</v>
-      </c>
-      <c r="F121">
-        <v>2868</v>
       </c>
       <c r="G121">
         <v>15.5</v>
@@ -18135,10 +18138,10 @@
         <v>150</v>
       </c>
       <c r="E122">
+        <v>3399</v>
+      </c>
+      <c r="F122">
         <v>15</v>
-      </c>
-      <c r="F122">
-        <v>3399</v>
       </c>
       <c r="G122">
         <v>11</v>
@@ -18167,10 +18170,10 @@
         <v>110</v>
       </c>
       <c r="E123">
+        <v>2660</v>
+      </c>
+      <c r="F123">
         <v>24</v>
-      </c>
-      <c r="F123">
-        <v>2660</v>
       </c>
       <c r="G123">
         <v>14</v>
@@ -18199,10 +18202,10 @@
         <v>122</v>
       </c>
       <c r="E124">
+        <v>2807</v>
+      </c>
+      <c r="F124">
         <v>20</v>
-      </c>
-      <c r="F124">
-        <v>2807</v>
       </c>
       <c r="G124">
         <v>13.5</v>
@@ -18231,10 +18234,10 @@
         <v>180</v>
       </c>
       <c r="E125">
+        <v>3664</v>
+      </c>
+      <c r="F125">
         <v>11</v>
-      </c>
-      <c r="F125">
-        <v>3664</v>
       </c>
       <c r="G125">
         <v>11</v>
@@ -18263,10 +18266,10 @@
         <v>95</v>
       </c>
       <c r="E126">
+        <v>3102</v>
+      </c>
+      <c r="F126">
         <v>20</v>
-      </c>
-      <c r="F126">
-        <v>3102</v>
       </c>
       <c r="G126">
         <v>16.5</v>
@@ -18295,10 +18298,10 @@
         <v>100</v>
       </c>
       <c r="E127">
+        <v>2901</v>
+      </c>
+      <c r="F127">
         <v>19</v>
-      </c>
-      <c r="F127">
-        <v>2901</v>
       </c>
       <c r="G127">
         <v>16</v>
@@ -18327,10 +18330,10 @@
         <v>100</v>
       </c>
       <c r="E128">
+        <v>3336</v>
+      </c>
+      <c r="F128">
         <v>15</v>
-      </c>
-      <c r="F128">
-        <v>3336</v>
       </c>
       <c r="G128">
         <v>17</v>
@@ -18359,10 +18362,10 @@
         <v>67</v>
       </c>
       <c r="E129">
+        <v>1950</v>
+      </c>
+      <c r="F129">
         <v>31</v>
-      </c>
-      <c r="F129">
-        <v>1950</v>
       </c>
       <c r="G129">
         <v>19</v>
@@ -18391,10 +18394,10 @@
         <v>80</v>
       </c>
       <c r="E130">
+        <v>2451</v>
+      </c>
+      <c r="F130">
         <v>26</v>
-      </c>
-      <c r="F130">
-        <v>2451</v>
       </c>
       <c r="G130">
         <v>16.5</v>
@@ -18423,10 +18426,10 @@
         <v>65</v>
       </c>
       <c r="E131">
+        <v>1836</v>
+      </c>
+      <c r="F131">
         <v>32</v>
-      </c>
-      <c r="F131">
-        <v>1836</v>
       </c>
       <c r="G131">
         <v>21</v>
@@ -18455,10 +18458,10 @@
         <v>75</v>
       </c>
       <c r="E132">
+        <v>2542</v>
+      </c>
+      <c r="F132">
         <v>25</v>
-      </c>
-      <c r="F132">
-        <v>2542</v>
       </c>
       <c r="G132">
         <v>17</v>
@@ -18487,10 +18490,10 @@
         <v>100</v>
       </c>
       <c r="E133">
+        <v>3781</v>
+      </c>
+      <c r="F133">
         <v>16</v>
-      </c>
-      <c r="F133">
-        <v>3781</v>
       </c>
       <c r="G133">
         <v>17</v>
@@ -18519,10 +18522,10 @@
         <v>110</v>
       </c>
       <c r="E134">
+        <v>3632</v>
+      </c>
+      <c r="F134">
         <v>16</v>
-      </c>
-      <c r="F134">
-        <v>3632</v>
       </c>
       <c r="G134">
         <v>18</v>
@@ -18551,10 +18554,10 @@
         <v>105</v>
       </c>
       <c r="E135">
+        <v>3613</v>
+      </c>
+      <c r="F135">
         <v>18</v>
-      </c>
-      <c r="F135">
-        <v>3613</v>
       </c>
       <c r="G135">
         <v>16.5</v>
@@ -18583,10 +18586,10 @@
         <v>140</v>
       </c>
       <c r="E136">
+        <v>4141</v>
+      </c>
+      <c r="F136">
         <v>16</v>
-      </c>
-      <c r="F136">
-        <v>4141</v>
       </c>
       <c r="G136">
         <v>14</v>
@@ -18615,10 +18618,10 @@
         <v>150</v>
       </c>
       <c r="E137">
+        <v>4699</v>
+      </c>
+      <c r="F137">
         <v>13</v>
-      </c>
-      <c r="F137">
-        <v>4699</v>
       </c>
       <c r="G137">
         <v>14.5</v>
@@ -18647,10 +18650,10 @@
         <v>150</v>
       </c>
       <c r="E138">
+        <v>4457</v>
+      </c>
+      <c r="F138">
         <v>14</v>
-      </c>
-      <c r="F138">
-        <v>4457</v>
       </c>
       <c r="G138">
         <v>13.5</v>
@@ -18679,10 +18682,10 @@
         <v>140</v>
       </c>
       <c r="E139">
+        <v>4638</v>
+      </c>
+      <c r="F139">
         <v>14</v>
-      </c>
-      <c r="F139">
-        <v>4638</v>
       </c>
       <c r="G139">
         <v>16</v>
@@ -18711,10 +18714,10 @@
         <v>150</v>
       </c>
       <c r="E140">
+        <v>4257</v>
+      </c>
+      <c r="F140">
         <v>14</v>
-      </c>
-      <c r="F140">
-        <v>4257</v>
       </c>
       <c r="G140">
         <v>15.5</v>
@@ -18743,10 +18746,10 @@
         <v>83</v>
       </c>
       <c r="E141">
+        <v>2219</v>
+      </c>
+      <c r="F141">
         <v>29</v>
-      </c>
-      <c r="F141">
-        <v>2219</v>
       </c>
       <c r="G141">
         <v>16.5</v>
@@ -18775,10 +18778,10 @@
         <v>67</v>
       </c>
       <c r="E142">
+        <v>1963</v>
+      </c>
+      <c r="F142">
         <v>26</v>
-      </c>
-      <c r="F142">
-        <v>1963</v>
       </c>
       <c r="G142">
         <v>15.5</v>
@@ -18807,10 +18810,10 @@
         <v>78</v>
       </c>
       <c r="E143">
+        <v>2300</v>
+      </c>
+      <c r="F143">
         <v>26</v>
-      </c>
-      <c r="F143">
-        <v>2300</v>
       </c>
       <c r="G143">
         <v>14.5</v>
@@ -18839,10 +18842,10 @@
         <v>52</v>
       </c>
       <c r="E144">
+        <v>1649</v>
+      </c>
+      <c r="F144">
         <v>31</v>
-      </c>
-      <c r="F144">
-        <v>1649</v>
       </c>
       <c r="G144">
         <v>16.5</v>
@@ -18871,10 +18874,10 @@
         <v>61</v>
       </c>
       <c r="E145">
+        <v>2003</v>
+      </c>
+      <c r="F145">
         <v>32</v>
-      </c>
-      <c r="F145">
-        <v>2003</v>
       </c>
       <c r="G145">
         <v>19</v>
@@ -18903,10 +18906,10 @@
         <v>75</v>
       </c>
       <c r="E146">
+        <v>2125</v>
+      </c>
+      <c r="F146">
         <v>28</v>
-      </c>
-      <c r="F146">
-        <v>2125</v>
       </c>
       <c r="G146">
         <v>14.5</v>
@@ -18935,10 +18938,10 @@
         <v>75</v>
       </c>
       <c r="E147">
+        <v>2108</v>
+      </c>
+      <c r="F147">
         <v>24</v>
-      </c>
-      <c r="F147">
-        <v>2108</v>
       </c>
       <c r="G147">
         <v>15.5</v>
@@ -18967,10 +18970,10 @@
         <v>75</v>
       </c>
       <c r="E148">
+        <v>2246</v>
+      </c>
+      <c r="F148">
         <v>26</v>
-      </c>
-      <c r="F148">
-        <v>2246</v>
       </c>
       <c r="G148">
         <v>14</v>
@@ -18999,10 +19002,10 @@
         <v>97</v>
       </c>
       <c r="E149">
+        <v>2489</v>
+      </c>
+      <c r="F149">
         <v>24</v>
-      </c>
-      <c r="F149">
-        <v>2489</v>
       </c>
       <c r="G149">
         <v>15</v>
@@ -19031,10 +19034,10 @@
         <v>93</v>
       </c>
       <c r="E150">
+        <v>2391</v>
+      </c>
+      <c r="F150">
         <v>26</v>
-      </c>
-      <c r="F150">
-        <v>2391</v>
       </c>
       <c r="G150">
         <v>15.5</v>
@@ -19063,10 +19066,10 @@
         <v>67</v>
       </c>
       <c r="E151">
+        <v>2000</v>
+      </c>
+      <c r="F151">
         <v>31</v>
-      </c>
-      <c r="F151">
-        <v>2000</v>
       </c>
       <c r="G151">
         <v>16</v>
@@ -19095,10 +19098,10 @@
         <v>95</v>
       </c>
       <c r="E152">
+        <v>3264</v>
+      </c>
+      <c r="F152">
         <v>19</v>
-      </c>
-      <c r="F152">
-        <v>3264</v>
       </c>
       <c r="G152">
         <v>16</v>
@@ -19127,10 +19130,10 @@
         <v>105</v>
       </c>
       <c r="E153">
+        <v>3459</v>
+      </c>
+      <c r="F153">
         <v>18</v>
-      </c>
-      <c r="F153">
-        <v>3459</v>
       </c>
       <c r="G153">
         <v>16</v>
@@ -19159,10 +19162,10 @@
         <v>72</v>
       </c>
       <c r="E154">
+        <v>3432</v>
+      </c>
+      <c r="F154">
         <v>15</v>
-      </c>
-      <c r="F154">
-        <v>3432</v>
       </c>
       <c r="G154">
         <v>21</v>
@@ -19191,10 +19194,10 @@
         <v>72</v>
       </c>
       <c r="E155">
+        <v>3158</v>
+      </c>
+      <c r="F155">
         <v>15</v>
-      </c>
-      <c r="F155">
-        <v>3158</v>
       </c>
       <c r="G155">
         <v>19.5</v>
@@ -19223,10 +19226,10 @@
         <v>170</v>
       </c>
       <c r="E156">
+        <v>4668</v>
+      </c>
+      <c r="F156">
         <v>16</v>
-      </c>
-      <c r="F156">
-        <v>4668</v>
       </c>
       <c r="G156">
         <v>11.5</v>
@@ -19255,10 +19258,10 @@
         <v>145</v>
       </c>
       <c r="E157">
+        <v>4440</v>
+      </c>
+      <c r="F157">
         <v>15</v>
-      </c>
-      <c r="F157">
-        <v>4440</v>
       </c>
       <c r="G157">
         <v>14</v>
@@ -19287,10 +19290,10 @@
         <v>150</v>
       </c>
       <c r="E158">
+        <v>4498</v>
+      </c>
+      <c r="F158">
         <v>16</v>
-      </c>
-      <c r="F158">
-        <v>4498</v>
       </c>
       <c r="G158">
         <v>14.5</v>
@@ -19319,10 +19322,10 @@
         <v>148</v>
       </c>
       <c r="E159">
+        <v>4657</v>
+      </c>
+      <c r="F159">
         <v>14</v>
-      </c>
-      <c r="F159">
-        <v>4657</v>
       </c>
       <c r="G159">
         <v>13.5</v>
@@ -19351,10 +19354,10 @@
         <v>110</v>
       </c>
       <c r="E160">
+        <v>3907</v>
+      </c>
+      <c r="F160">
         <v>17</v>
-      </c>
-      <c r="F160">
-        <v>3907</v>
       </c>
       <c r="G160">
         <v>21</v>
@@ -19383,10 +19386,10 @@
         <v>105</v>
       </c>
       <c r="E161">
+        <v>3897</v>
+      </c>
+      <c r="F161">
         <v>16</v>
-      </c>
-      <c r="F161">
-        <v>3897</v>
       </c>
       <c r="G161">
         <v>18.5</v>
@@ -19415,10 +19418,10 @@
         <v>110</v>
       </c>
       <c r="E162">
+        <v>3730</v>
+      </c>
+      <c r="F162">
         <v>15</v>
-      </c>
-      <c r="F162">
-        <v>3730</v>
       </c>
       <c r="G162">
         <v>19</v>
@@ -19447,10 +19450,10 @@
         <v>95</v>
       </c>
       <c r="E163">
+        <v>3785</v>
+      </c>
+      <c r="F163">
         <v>18</v>
-      </c>
-      <c r="F163">
-        <v>3785</v>
       </c>
       <c r="G163">
         <v>19</v>
@@ -19479,10 +19482,10 @@
         <v>110</v>
       </c>
       <c r="E164">
+        <v>3039</v>
+      </c>
+      <c r="F164">
         <v>21</v>
-      </c>
-      <c r="F164">
-        <v>3039</v>
       </c>
       <c r="G164">
         <v>15</v>
@@ -19511,10 +19514,10 @@
         <v>110</v>
       </c>
       <c r="E165">
+        <v>3221</v>
+      </c>
+      <c r="F165">
         <v>20</v>
-      </c>
-      <c r="F165">
-        <v>3221</v>
       </c>
       <c r="G165">
         <v>13.5</v>
@@ -19543,10 +19546,10 @@
         <v>129</v>
       </c>
       <c r="E166">
+        <v>3169</v>
+      </c>
+      <c r="F166">
         <v>13</v>
-      </c>
-      <c r="F166">
-        <v>3169</v>
       </c>
       <c r="G166">
         <v>12</v>
@@ -19575,10 +19578,10 @@
         <v>75</v>
       </c>
       <c r="E167">
+        <v>2171</v>
+      </c>
+      <c r="F167">
         <v>29</v>
-      </c>
-      <c r="F167">
-        <v>2171</v>
       </c>
       <c r="G167">
         <v>16</v>
@@ -19607,10 +19610,10 @@
         <v>83</v>
       </c>
       <c r="E168">
+        <v>2639</v>
+      </c>
+      <c r="F168">
         <v>23</v>
-      </c>
-      <c r="F168">
-        <v>2639</v>
       </c>
       <c r="G168">
         <v>17</v>
@@ -19639,10 +19642,10 @@
         <v>100</v>
       </c>
       <c r="E169">
+        <v>2914</v>
+      </c>
+      <c r="F169">
         <v>20</v>
-      </c>
-      <c r="F169">
-        <v>2914</v>
       </c>
       <c r="G169">
         <v>16</v>
@@ -19671,10 +19674,10 @@
         <v>78</v>
       </c>
       <c r="E170">
+        <v>2592</v>
+      </c>
+      <c r="F170">
         <v>23</v>
-      </c>
-      <c r="F170">
-        <v>2592</v>
       </c>
       <c r="G170">
         <v>18.5</v>
@@ -19703,10 +19706,10 @@
         <v>96</v>
       </c>
       <c r="E171">
+        <v>2702</v>
+      </c>
+      <c r="F171">
         <v>24</v>
-      </c>
-      <c r="F171">
-        <v>2702</v>
       </c>
       <c r="G171">
         <v>13.5</v>
@@ -19735,10 +19738,10 @@
         <v>71</v>
       </c>
       <c r="E172">
+        <v>2223</v>
+      </c>
+      <c r="F172">
         <v>25</v>
-      </c>
-      <c r="F172">
-        <v>2223</v>
       </c>
       <c r="G172">
         <v>16.5</v>
@@ -19767,10 +19770,10 @@
         <v>97</v>
       </c>
       <c r="E173">
+        <v>2545</v>
+      </c>
+      <c r="F173">
         <v>24</v>
-      </c>
-      <c r="F173">
-        <v>2545</v>
       </c>
       <c r="G173">
         <v>17</v>
@@ -19799,10 +19802,10 @@
         <v>97</v>
       </c>
       <c r="E174">
+        <v>2984</v>
+      </c>
+      <c r="F174">
         <v>18</v>
-      </c>
-      <c r="F174">
-        <v>2984</v>
       </c>
       <c r="G174">
         <v>14.5</v>
@@ -19831,10 +19834,10 @@
         <v>70</v>
       </c>
       <c r="E175">
+        <v>1937</v>
+      </c>
+      <c r="F175">
         <v>29</v>
-      </c>
-      <c r="F175">
-        <v>1937</v>
       </c>
       <c r="G175">
         <v>14</v>
@@ -19863,10 +19866,10 @@
         <v>90</v>
       </c>
       <c r="E176">
+        <v>3211</v>
+      </c>
+      <c r="F176">
         <v>19</v>
-      </c>
-      <c r="F176">
-        <v>3211</v>
       </c>
       <c r="G176">
         <v>17</v>
@@ -19895,10 +19898,10 @@
         <v>95</v>
       </c>
       <c r="E177">
+        <v>2694</v>
+      </c>
+      <c r="F177">
         <v>23</v>
-      </c>
-      <c r="F177">
-        <v>2694</v>
       </c>
       <c r="G177">
         <v>15</v>
@@ -19927,10 +19930,10 @@
         <v>88</v>
       </c>
       <c r="E178">
+        <v>2957</v>
+      </c>
+      <c r="F178">
         <v>23</v>
-      </c>
-      <c r="F178">
-        <v>2957</v>
       </c>
       <c r="G178">
         <v>17</v>
@@ -19959,10 +19962,10 @@
         <v>98</v>
       </c>
       <c r="E179">
+        <v>2945</v>
+      </c>
+      <c r="F179">
         <v>22</v>
-      </c>
-      <c r="F179">
-        <v>2945</v>
       </c>
       <c r="G179">
         <v>14.5</v>
@@ -19991,10 +19994,10 @@
         <v>115</v>
       </c>
       <c r="E180">
+        <v>2671</v>
+      </c>
+      <c r="F180">
         <v>25</v>
-      </c>
-      <c r="F180">
-        <v>2671</v>
       </c>
       <c r="G180">
         <v>13.5</v>
@@ -20023,10 +20026,10 @@
         <v>53</v>
       </c>
       <c r="E181">
+        <v>1795</v>
+      </c>
+      <c r="F181">
         <v>33</v>
-      </c>
-      <c r="F181">
-        <v>1795</v>
       </c>
       <c r="G181">
         <v>17.5</v>
@@ -20055,10 +20058,10 @@
         <v>86</v>
       </c>
       <c r="E182">
+        <v>2464</v>
+      </c>
+      <c r="F182">
         <v>28</v>
-      </c>
-      <c r="F182">
-        <v>2464</v>
       </c>
       <c r="G182">
         <v>15.5</v>
@@ -20087,10 +20090,10 @@
         <v>81</v>
       </c>
       <c r="E183">
+        <v>2220</v>
+      </c>
+      <c r="F183">
         <v>25</v>
-      </c>
-      <c r="F183">
-        <v>2220</v>
       </c>
       <c r="G183">
         <v>16.899999999999999</v>
@@ -20119,10 +20122,10 @@
         <v>92</v>
       </c>
       <c r="E184">
+        <v>2572</v>
+      </c>
+      <c r="F184">
         <v>25</v>
-      </c>
-      <c r="F184">
-        <v>2572</v>
       </c>
       <c r="G184">
         <v>14.9</v>
@@ -20151,10 +20154,10 @@
         <v>79</v>
       </c>
       <c r="E185">
+        <v>2255</v>
+      </c>
+      <c r="F185">
         <v>26</v>
-      </c>
-      <c r="F185">
-        <v>2255</v>
       </c>
       <c r="G185">
         <v>17.7</v>
@@ -20183,10 +20186,10 @@
         <v>83</v>
       </c>
       <c r="E186">
+        <v>2202</v>
+      </c>
+      <c r="F186">
         <v>27</v>
-      </c>
-      <c r="F186">
-        <v>2202</v>
       </c>
       <c r="G186">
         <v>15.3</v>
@@ -20215,10 +20218,10 @@
         <v>140</v>
       </c>
       <c r="E187">
+        <v>4215</v>
+      </c>
+      <c r="F187">
         <v>17.5</v>
-      </c>
-      <c r="F187">
-        <v>4215</v>
       </c>
       <c r="G187">
         <v>13</v>
@@ -20247,10 +20250,10 @@
         <v>150</v>
       </c>
       <c r="E188">
+        <v>4190</v>
+      </c>
+      <c r="F188">
         <v>16</v>
-      </c>
-      <c r="F188">
-        <v>4190</v>
       </c>
       <c r="G188">
         <v>13</v>
@@ -20279,10 +20282,10 @@
         <v>120</v>
       </c>
       <c r="E189">
+        <v>3962</v>
+      </c>
+      <c r="F189">
         <v>15.5</v>
-      </c>
-      <c r="F189">
-        <v>3962</v>
       </c>
       <c r="G189">
         <v>13.9</v>
@@ -20311,10 +20314,10 @@
         <v>152</v>
       </c>
       <c r="E190">
+        <v>4215</v>
+      </c>
+      <c r="F190">
         <v>14.5</v>
-      </c>
-      <c r="F190">
-        <v>4215</v>
       </c>
       <c r="G190">
         <v>12.8</v>
@@ -20343,10 +20346,10 @@
         <v>100</v>
       </c>
       <c r="E191">
+        <v>3233</v>
+      </c>
+      <c r="F191">
         <v>22</v>
-      </c>
-      <c r="F191">
-        <v>3233</v>
       </c>
       <c r="G191">
         <v>15.4</v>
@@ -20375,10 +20378,10 @@
         <v>105</v>
       </c>
       <c r="E192">
+        <v>3353</v>
+      </c>
+      <c r="F192">
         <v>22</v>
-      </c>
-      <c r="F192">
-        <v>3353</v>
       </c>
       <c r="G192">
         <v>14.5</v>
@@ -20407,10 +20410,10 @@
         <v>81</v>
       </c>
       <c r="E193">
+        <v>3012</v>
+      </c>
+      <c r="F193">
         <v>24</v>
-      </c>
-      <c r="F193">
-        <v>3012</v>
       </c>
       <c r="G193">
         <v>17.600000000000001</v>
@@ -20439,10 +20442,10 @@
         <v>90</v>
       </c>
       <c r="E194">
+        <v>3085</v>
+      </c>
+      <c r="F194">
         <v>22.5</v>
-      </c>
-      <c r="F194">
-        <v>3085</v>
       </c>
       <c r="G194">
         <v>17.600000000000001</v>
@@ -20471,10 +20474,10 @@
         <v>52</v>
       </c>
       <c r="E195">
+        <v>2035</v>
+      </c>
+      <c r="F195">
         <v>29</v>
-      </c>
-      <c r="F195">
-        <v>2035</v>
       </c>
       <c r="G195">
         <v>22.2</v>
@@ -20503,10 +20506,10 @@
         <v>60</v>
       </c>
       <c r="E196">
+        <v>2164</v>
+      </c>
+      <c r="F196">
         <v>24.5</v>
-      </c>
-      <c r="F196">
-        <v>2164</v>
       </c>
       <c r="G196">
         <v>22.1</v>
@@ -20535,10 +20538,10 @@
         <v>70</v>
       </c>
       <c r="E197">
+        <v>1937</v>
+      </c>
+      <c r="F197">
         <v>29</v>
-      </c>
-      <c r="F197">
-        <v>1937</v>
       </c>
       <c r="G197">
         <v>14.2</v>
@@ -20567,10 +20570,10 @@
         <v>53</v>
       </c>
       <c r="E198">
+        <v>1795</v>
+      </c>
+      <c r="F198">
         <v>33</v>
-      </c>
-      <c r="F198">
-        <v>1795</v>
       </c>
       <c r="G198">
         <v>17.399999999999999</v>
@@ -20599,10 +20602,10 @@
         <v>100</v>
       </c>
       <c r="E199">
+        <v>3651</v>
+      </c>
+      <c r="F199">
         <v>20</v>
-      </c>
-      <c r="F199">
-        <v>3651</v>
       </c>
       <c r="G199">
         <v>17.7</v>
@@ -20631,10 +20634,10 @@
         <v>78</v>
       </c>
       <c r="E200">
+        <v>3574</v>
+      </c>
+      <c r="F200">
         <v>18</v>
-      </c>
-      <c r="F200">
-        <v>3574</v>
       </c>
       <c r="G200">
         <v>21</v>
@@ -20663,10 +20666,10 @@
         <v>110</v>
       </c>
       <c r="E201">
+        <v>3645</v>
+      </c>
+      <c r="F201">
         <v>18.5</v>
-      </c>
-      <c r="F201">
-        <v>3645</v>
       </c>
       <c r="G201">
         <v>16.2</v>
@@ -20695,10 +20698,10 @@
         <v>95</v>
       </c>
       <c r="E202">
+        <v>3193</v>
+      </c>
+      <c r="F202">
         <v>17.5</v>
-      </c>
-      <c r="F202">
-        <v>3193</v>
       </c>
       <c r="G202">
         <v>17.8</v>
@@ -20727,10 +20730,10 @@
         <v>71</v>
       </c>
       <c r="E203">
+        <v>1825</v>
+      </c>
+      <c r="F203">
         <v>29.5</v>
-      </c>
-      <c r="F203">
-        <v>1825</v>
       </c>
       <c r="G203">
         <v>12.2</v>
@@ -20759,10 +20762,10 @@
         <v>70</v>
       </c>
       <c r="E204">
+        <v>1990</v>
+      </c>
+      <c r="F204">
         <v>32</v>
-      </c>
-      <c r="F204">
-        <v>1990</v>
       </c>
       <c r="G204">
         <v>17</v>
@@ -20791,10 +20794,10 @@
         <v>75</v>
       </c>
       <c r="E205">
+        <v>2155</v>
+      </c>
+      <c r="F205">
         <v>28</v>
-      </c>
-      <c r="F205">
-        <v>2155</v>
       </c>
       <c r="G205">
         <v>16.399999999999999</v>
@@ -20823,10 +20826,10 @@
         <v>72</v>
       </c>
       <c r="E206">
+        <v>2565</v>
+      </c>
+      <c r="F206">
         <v>26.5</v>
-      </c>
-      <c r="F206">
-        <v>2565</v>
       </c>
       <c r="G206">
         <v>13.6</v>
@@ -20855,10 +20858,10 @@
         <v>102</v>
       </c>
       <c r="E207">
+        <v>3150</v>
+      </c>
+      <c r="F207">
         <v>20</v>
-      </c>
-      <c r="F207">
-        <v>3150</v>
       </c>
       <c r="G207">
         <v>15.7</v>
@@ -20887,10 +20890,10 @@
         <v>150</v>
       </c>
       <c r="E208">
+        <v>3940</v>
+      </c>
+      <c r="F208">
         <v>13</v>
-      </c>
-      <c r="F208">
-        <v>3940</v>
       </c>
       <c r="G208">
         <v>13.2</v>
@@ -20919,10 +20922,10 @@
         <v>88</v>
       </c>
       <c r="E209">
+        <v>3270</v>
+      </c>
+      <c r="F209">
         <v>19</v>
-      </c>
-      <c r="F209">
-        <v>3270</v>
       </c>
       <c r="G209">
         <v>21.9</v>
@@ -20951,10 +20954,10 @@
         <v>108</v>
       </c>
       <c r="E210">
+        <v>2930</v>
+      </c>
+      <c r="F210">
         <v>19</v>
-      </c>
-      <c r="F210">
-        <v>2930</v>
       </c>
       <c r="G210">
         <v>15.5</v>
@@ -20983,10 +20986,10 @@
         <v>120</v>
       </c>
       <c r="E211">
+        <v>3820</v>
+      </c>
+      <c r="F211">
         <v>16.5</v>
-      </c>
-      <c r="F211">
-        <v>3820</v>
       </c>
       <c r="G211">
         <v>16.7</v>
@@ -21015,10 +21018,10 @@
         <v>180</v>
       </c>
       <c r="E212">
+        <v>4380</v>
+      </c>
+      <c r="F212">
         <v>16.5</v>
-      </c>
-      <c r="F212">
-        <v>4380</v>
       </c>
       <c r="G212">
         <v>12.1</v>
@@ -21047,10 +21050,10 @@
         <v>145</v>
       </c>
       <c r="E213">
+        <v>4055</v>
+      </c>
+      <c r="F213">
         <v>13</v>
-      </c>
-      <c r="F213">
-        <v>4055</v>
       </c>
       <c r="G213">
         <v>12</v>
@@ -21079,10 +21082,10 @@
         <v>130</v>
       </c>
       <c r="E214">
+        <v>3870</v>
+      </c>
+      <c r="F214">
         <v>13</v>
-      </c>
-      <c r="F214">
-        <v>3870</v>
       </c>
       <c r="G214">
         <v>15</v>
@@ -21111,10 +21114,10 @@
         <v>150</v>
       </c>
       <c r="E215">
+        <v>3755</v>
+      </c>
+      <c r="F215">
         <v>13</v>
-      </c>
-      <c r="F215">
-        <v>3755</v>
       </c>
       <c r="G215">
         <v>14</v>
@@ -21143,10 +21146,10 @@
         <v>68</v>
       </c>
       <c r="E216">
+        <v>2045</v>
+      </c>
+      <c r="F216">
         <v>31.5</v>
-      </c>
-      <c r="F216">
-        <v>2045</v>
       </c>
       <c r="G216">
         <v>18.5</v>
@@ -21175,10 +21178,10 @@
         <v>80</v>
       </c>
       <c r="E217">
+        <v>2155</v>
+      </c>
+      <c r="F217">
         <v>30</v>
-      </c>
-      <c r="F217">
-        <v>2155</v>
       </c>
       <c r="G217">
         <v>14.8</v>
@@ -21207,10 +21210,10 @@
         <v>58</v>
       </c>
       <c r="E218">
+        <v>1825</v>
+      </c>
+      <c r="F218">
         <v>36</v>
-      </c>
-      <c r="F218">
-        <v>1825</v>
       </c>
       <c r="G218">
         <v>18.600000000000001</v>
@@ -21239,10 +21242,10 @@
         <v>96</v>
       </c>
       <c r="E219">
+        <v>2300</v>
+      </c>
+      <c r="F219">
         <v>25.5</v>
-      </c>
-      <c r="F219">
-        <v>2300</v>
       </c>
       <c r="G219">
         <v>15.5</v>
@@ -21271,10 +21274,10 @@
         <v>70</v>
       </c>
       <c r="E220">
+        <v>1945</v>
+      </c>
+      <c r="F220">
         <v>33.5</v>
-      </c>
-      <c r="F220">
-        <v>1945</v>
       </c>
       <c r="G220">
         <v>16.8</v>
@@ -21303,10 +21306,10 @@
         <v>145</v>
       </c>
       <c r="E221">
+        <v>3880</v>
+      </c>
+      <c r="F221">
         <v>17.5</v>
-      </c>
-      <c r="F221">
-        <v>3880</v>
       </c>
       <c r="G221">
         <v>12.5</v>
@@ -21335,10 +21338,10 @@
         <v>110</v>
       </c>
       <c r="E222">
+        <v>4060</v>
+      </c>
+      <c r="F222">
         <v>17</v>
-      </c>
-      <c r="F222">
-        <v>4060</v>
       </c>
       <c r="G222">
         <v>19</v>
@@ -21367,10 +21370,10 @@
         <v>145</v>
       </c>
       <c r="E223">
+        <v>4140</v>
+      </c>
+      <c r="F223">
         <v>15.5</v>
-      </c>
-      <c r="F223">
-        <v>4140</v>
       </c>
       <c r="G223">
         <v>13.7</v>
@@ -21399,10 +21402,10 @@
         <v>130</v>
       </c>
       <c r="E224">
+        <v>4295</v>
+      </c>
+      <c r="F224">
         <v>15</v>
-      </c>
-      <c r="F224">
-        <v>4295</v>
       </c>
       <c r="G224">
         <v>14.9</v>
@@ -21431,10 +21434,10 @@
         <v>110</v>
       </c>
       <c r="E225">
+        <v>3520</v>
+      </c>
+      <c r="F225">
         <v>17.5</v>
-      </c>
-      <c r="F225">
-        <v>3520</v>
       </c>
       <c r="G225">
         <v>16.399999999999999</v>
@@ -21463,10 +21466,10 @@
         <v>105</v>
       </c>
       <c r="E226">
+        <v>3425</v>
+      </c>
+      <c r="F226">
         <v>20.5</v>
-      </c>
-      <c r="F226">
-        <v>3425</v>
       </c>
       <c r="G226">
         <v>16.899999999999999</v>
@@ -21495,10 +21498,10 @@
         <v>100</v>
       </c>
       <c r="E227">
+        <v>3630</v>
+      </c>
+      <c r="F227">
         <v>19</v>
-      </c>
-      <c r="F227">
-        <v>3630</v>
       </c>
       <c r="G227">
         <v>17.7</v>
@@ -21527,10 +21530,10 @@
         <v>98</v>
       </c>
       <c r="E228">
+        <v>3525</v>
+      </c>
+      <c r="F228">
         <v>18.5</v>
-      </c>
-      <c r="F228">
-        <v>3525</v>
       </c>
       <c r="G228">
         <v>19</v>
@@ -21559,10 +21562,10 @@
         <v>180</v>
       </c>
       <c r="E229">
+        <v>4220</v>
+      </c>
+      <c r="F229">
         <v>16</v>
-      </c>
-      <c r="F229">
-        <v>4220</v>
       </c>
       <c r="G229">
         <v>11.1</v>
@@ -21591,10 +21594,10 @@
         <v>170</v>
       </c>
       <c r="E230">
+        <v>4165</v>
+      </c>
+      <c r="F230">
         <v>15.5</v>
-      </c>
-      <c r="F230">
-        <v>4165</v>
       </c>
       <c r="G230">
         <v>11.4</v>
@@ -21623,10 +21626,10 @@
         <v>190</v>
       </c>
       <c r="E231">
+        <v>4325</v>
+      </c>
+      <c r="F231">
         <v>15.5</v>
-      </c>
-      <c r="F231">
-        <v>4325</v>
       </c>
       <c r="G231">
         <v>12.2</v>
@@ -21655,10 +21658,10 @@
         <v>149</v>
       </c>
       <c r="E232">
+        <v>4335</v>
+      </c>
+      <c r="F232">
         <v>16</v>
-      </c>
-      <c r="F232">
-        <v>4335</v>
       </c>
       <c r="G232">
         <v>14.5</v>
@@ -21687,10 +21690,10 @@
         <v>78</v>
       </c>
       <c r="E233">
+        <v>1940</v>
+      </c>
+      <c r="F233">
         <v>29</v>
-      </c>
-      <c r="F233">
-        <v>1940</v>
       </c>
       <c r="G233">
         <v>14.5</v>
@@ -21719,10 +21722,10 @@
         <v>88</v>
       </c>
       <c r="E234">
+        <v>2740</v>
+      </c>
+      <c r="F234">
         <v>24.5</v>
-      </c>
-      <c r="F234">
-        <v>2740</v>
       </c>
       <c r="G234">
         <v>16</v>
@@ -21751,10 +21754,10 @@
         <v>75</v>
       </c>
       <c r="E235">
+        <v>2265</v>
+      </c>
+      <c r="F235">
         <v>26</v>
-      </c>
-      <c r="F235">
-        <v>2265</v>
       </c>
       <c r="G235">
         <v>18.2</v>
@@ -21783,10 +21786,10 @@
         <v>89</v>
       </c>
       <c r="E236">
+        <v>2755</v>
+      </c>
+      <c r="F236">
         <v>25.5</v>
-      </c>
-      <c r="F236">
-        <v>2755</v>
       </c>
       <c r="G236">
         <v>15.8</v>
@@ -21815,10 +21818,10 @@
         <v>63</v>
       </c>
       <c r="E237">
+        <v>2051</v>
+      </c>
+      <c r="F237">
         <v>30.5</v>
-      </c>
-      <c r="F237">
-        <v>2051</v>
       </c>
       <c r="G237">
         <v>17</v>
@@ -21847,10 +21850,10 @@
         <v>83</v>
       </c>
       <c r="E238">
+        <v>2075</v>
+      </c>
+      <c r="F238">
         <v>33.5</v>
-      </c>
-      <c r="F238">
-        <v>2075</v>
       </c>
       <c r="G238">
         <v>15.9</v>
@@ -21879,10 +21882,10 @@
         <v>67</v>
       </c>
       <c r="E239">
+        <v>1985</v>
+      </c>
+      <c r="F239">
         <v>30</v>
-      </c>
-      <c r="F239">
-        <v>1985</v>
       </c>
       <c r="G239">
         <v>16.399999999999999</v>
@@ -21911,10 +21914,10 @@
         <v>78</v>
       </c>
       <c r="E240">
+        <v>2190</v>
+      </c>
+      <c r="F240">
         <v>30.5</v>
-      </c>
-      <c r="F240">
-        <v>2190</v>
       </c>
       <c r="G240">
         <v>14.1</v>
@@ -21943,10 +21946,10 @@
         <v>97</v>
       </c>
       <c r="E241">
+        <v>2815</v>
+      </c>
+      <c r="F241">
         <v>22</v>
-      </c>
-      <c r="F241">
-        <v>2815</v>
       </c>
       <c r="G241">
         <v>14.5</v>
@@ -21975,10 +21978,10 @@
         <v>110</v>
       </c>
       <c r="E242">
+        <v>2600</v>
+      </c>
+      <c r="F242">
         <v>21.5</v>
-      </c>
-      <c r="F242">
-        <v>2600</v>
       </c>
       <c r="G242">
         <v>12.8</v>
@@ -22007,10 +22010,10 @@
         <v>110</v>
       </c>
       <c r="E243">
+        <v>2720</v>
+      </c>
+      <c r="F243">
         <v>21.5</v>
-      </c>
-      <c r="F243">
-        <v>2720</v>
       </c>
       <c r="G243">
         <v>13.5</v>
@@ -22039,10 +22042,10 @@
         <v>48</v>
       </c>
       <c r="E244">
+        <v>1985</v>
+      </c>
+      <c r="F244">
         <v>43.1</v>
-      </c>
-      <c r="F244">
-        <v>1985</v>
       </c>
       <c r="G244">
         <v>21.5</v>
@@ -22071,10 +22074,10 @@
         <v>66</v>
       </c>
       <c r="E245">
+        <v>1800</v>
+      </c>
+      <c r="F245">
         <v>36.1</v>
-      </c>
-      <c r="F245">
-        <v>1800</v>
       </c>
       <c r="G245">
         <v>14.4</v>
@@ -22103,10 +22106,10 @@
         <v>52</v>
       </c>
       <c r="E246">
+        <v>1985</v>
+      </c>
+      <c r="F246">
         <v>32.799999999999997</v>
-      </c>
-      <c r="F246">
-        <v>1985</v>
       </c>
       <c r="G246">
         <v>19.399999999999999</v>
@@ -22135,10 +22138,10 @@
         <v>70</v>
       </c>
       <c r="E247">
+        <v>2070</v>
+      </c>
+      <c r="F247">
         <v>39.4</v>
-      </c>
-      <c r="F247">
-        <v>2070</v>
       </c>
       <c r="G247">
         <v>18.600000000000001</v>
@@ -22167,10 +22170,10 @@
         <v>60</v>
       </c>
       <c r="E248">
+        <v>1800</v>
+      </c>
+      <c r="F248">
         <v>36.1</v>
-      </c>
-      <c r="F248">
-        <v>1800</v>
       </c>
       <c r="G248">
         <v>16.399999999999999</v>
@@ -22199,10 +22202,10 @@
         <v>110</v>
       </c>
       <c r="E249">
+        <v>3365</v>
+      </c>
+      <c r="F249">
         <v>19.899999999999999</v>
-      </c>
-      <c r="F249">
-        <v>3365</v>
       </c>
       <c r="G249">
         <v>15.5</v>
@@ -22231,10 +22234,10 @@
         <v>140</v>
       </c>
       <c r="E250">
+        <v>3735</v>
+      </c>
+      <c r="F250">
         <v>19.399999999999999</v>
-      </c>
-      <c r="F250">
-        <v>3735</v>
       </c>
       <c r="G250">
         <v>13.2</v>
@@ -22263,10 +22266,10 @@
         <v>139</v>
       </c>
       <c r="E251">
+        <v>3570</v>
+      </c>
+      <c r="F251">
         <v>20.2</v>
-      </c>
-      <c r="F251">
-        <v>3570</v>
       </c>
       <c r="G251">
         <v>12.8</v>
@@ -22295,10 +22298,10 @@
         <v>105</v>
       </c>
       <c r="E252">
+        <v>3535</v>
+      </c>
+      <c r="F252">
         <v>19.2</v>
-      </c>
-      <c r="F252">
-        <v>3535</v>
       </c>
       <c r="G252">
         <v>19.2</v>
@@ -22327,10 +22330,10 @@
         <v>95</v>
       </c>
       <c r="E253">
+        <v>3155</v>
+      </c>
+      <c r="F253">
         <v>20.5</v>
-      </c>
-      <c r="F253">
-        <v>3155</v>
       </c>
       <c r="G253">
         <v>18.2</v>
@@ -22359,10 +22362,10 @@
         <v>85</v>
       </c>
       <c r="E254">
+        <v>2965</v>
+      </c>
+      <c r="F254">
         <v>20.2</v>
-      </c>
-      <c r="F254">
-        <v>2965</v>
       </c>
       <c r="G254">
         <v>15.8</v>
@@ -22391,10 +22394,10 @@
         <v>88</v>
       </c>
       <c r="E255">
+        <v>2720</v>
+      </c>
+      <c r="F255">
         <v>25.1</v>
-      </c>
-      <c r="F255">
-        <v>2720</v>
       </c>
       <c r="G255">
         <v>15.4</v>
@@ -22423,10 +22426,10 @@
         <v>100</v>
       </c>
       <c r="E256">
+        <v>3430</v>
+      </c>
+      <c r="F256">
         <v>20.5</v>
-      </c>
-      <c r="F256">
-        <v>3430</v>
       </c>
       <c r="G256">
         <v>17.2</v>
@@ -22455,10 +22458,10 @@
         <v>90</v>
       </c>
       <c r="E257">
+        <v>3210</v>
+      </c>
+      <c r="F257">
         <v>19.399999999999999</v>
-      </c>
-      <c r="F257">
-        <v>3210</v>
       </c>
       <c r="G257">
         <v>17.2</v>
@@ -22487,10 +22490,10 @@
         <v>105</v>
       </c>
       <c r="E258">
+        <v>3380</v>
+      </c>
+      <c r="F258">
         <v>20.6</v>
-      </c>
-      <c r="F258">
-        <v>3380</v>
       </c>
       <c r="G258">
         <v>15.8</v>
@@ -22519,10 +22522,10 @@
         <v>85</v>
       </c>
       <c r="E259">
+        <v>3070</v>
+      </c>
+      <c r="F259">
         <v>20.8</v>
-      </c>
-      <c r="F259">
-        <v>3070</v>
       </c>
       <c r="G259">
         <v>16.7</v>
@@ -22551,10 +22554,10 @@
         <v>110</v>
       </c>
       <c r="E260">
+        <v>3620</v>
+      </c>
+      <c r="F260">
         <v>18.600000000000001</v>
-      </c>
-      <c r="F260">
-        <v>3620</v>
       </c>
       <c r="G260">
         <v>18.7</v>
@@ -22583,10 +22586,10 @@
         <v>120</v>
       </c>
       <c r="E261">
+        <v>3410</v>
+      </c>
+      <c r="F261">
         <v>18.100000000000001</v>
-      </c>
-      <c r="F261">
-        <v>3410</v>
       </c>
       <c r="G261">
         <v>15.1</v>
@@ -22615,10 +22618,10 @@
         <v>145</v>
       </c>
       <c r="E262">
+        <v>3425</v>
+      </c>
+      <c r="F262">
         <v>19.2</v>
-      </c>
-      <c r="F262">
-        <v>3425</v>
       </c>
       <c r="G262">
         <v>13.2</v>
@@ -22647,10 +22650,10 @@
         <v>165</v>
       </c>
       <c r="E263">
+        <v>3445</v>
+      </c>
+      <c r="F263">
         <v>17.7</v>
-      </c>
-      <c r="F263">
-        <v>3445</v>
       </c>
       <c r="G263">
         <v>13.4</v>
@@ -22679,10 +22682,10 @@
         <v>139</v>
       </c>
       <c r="E264">
+        <v>3205</v>
+      </c>
+      <c r="F264">
         <v>18.100000000000001</v>
-      </c>
-      <c r="F264">
-        <v>3205</v>
       </c>
       <c r="G264">
         <v>11.2</v>
@@ -22711,10 +22714,10 @@
         <v>140</v>
       </c>
       <c r="E265">
+        <v>4080</v>
+      </c>
+      <c r="F265">
         <v>17.5</v>
-      </c>
-      <c r="F265">
-        <v>4080</v>
       </c>
       <c r="G265">
         <v>13.7</v>
@@ -22743,10 +22746,10 @@
         <v>68</v>
       </c>
       <c r="E266">
+        <v>2155</v>
+      </c>
+      <c r="F266">
         <v>30</v>
-      </c>
-      <c r="F266">
-        <v>2155</v>
       </c>
       <c r="G266">
         <v>16.5</v>
@@ -22775,10 +22778,10 @@
         <v>95</v>
       </c>
       <c r="E267">
+        <v>2560</v>
+      </c>
+      <c r="F267">
         <v>27.5</v>
-      </c>
-      <c r="F267">
-        <v>2560</v>
       </c>
       <c r="G267">
         <v>14.2</v>
@@ -22807,10 +22810,10 @@
         <v>97</v>
       </c>
       <c r="E268">
+        <v>2300</v>
+      </c>
+      <c r="F268">
         <v>27.2</v>
-      </c>
-      <c r="F268">
-        <v>2300</v>
       </c>
       <c r="G268">
         <v>14.7</v>
@@ -22839,10 +22842,10 @@
         <v>75</v>
       </c>
       <c r="E269">
+        <v>2230</v>
+      </c>
+      <c r="F269">
         <v>30.9</v>
-      </c>
-      <c r="F269">
-        <v>2230</v>
       </c>
       <c r="G269">
         <v>14.5</v>
@@ -22871,10 +22874,10 @@
         <v>95</v>
       </c>
       <c r="E270">
+        <v>2515</v>
+      </c>
+      <c r="F270">
         <v>21.1</v>
-      </c>
-      <c r="F270">
-        <v>2515</v>
       </c>
       <c r="G270">
         <v>14.8</v>
@@ -22903,10 +22906,10 @@
         <v>105</v>
       </c>
       <c r="E271">
+        <v>2745</v>
+      </c>
+      <c r="F271">
         <v>23.2</v>
-      </c>
-      <c r="F271">
-        <v>2745</v>
       </c>
       <c r="G271">
         <v>16.7</v>
@@ -22935,10 +22938,10 @@
         <v>85</v>
       </c>
       <c r="E272">
+        <v>2855</v>
+      </c>
+      <c r="F272">
         <v>23.8</v>
-      </c>
-      <c r="F272">
-        <v>2855</v>
       </c>
       <c r="G272">
         <v>17.600000000000001</v>
@@ -22967,10 +22970,10 @@
         <v>97</v>
       </c>
       <c r="E273">
+        <v>2405</v>
+      </c>
+      <c r="F273">
         <v>23.9</v>
-      </c>
-      <c r="F273">
-        <v>2405</v>
       </c>
       <c r="G273">
         <v>14.9</v>
@@ -22999,10 +23002,10 @@
         <v>103</v>
       </c>
       <c r="E274">
+        <v>2830</v>
+      </c>
+      <c r="F274">
         <v>20.3</v>
-      </c>
-      <c r="F274">
-        <v>2830</v>
       </c>
       <c r="G274">
         <v>15.9</v>
@@ -23031,10 +23034,10 @@
         <v>125</v>
       </c>
       <c r="E275">
+        <v>3140</v>
+      </c>
+      <c r="F275">
         <v>17</v>
-      </c>
-      <c r="F275">
-        <v>3140</v>
       </c>
       <c r="G275">
         <v>13.6</v>
@@ -23063,10 +23066,10 @@
         <v>115</v>
       </c>
       <c r="E276">
+        <v>2795</v>
+      </c>
+      <c r="F276">
         <v>21.6</v>
-      </c>
-      <c r="F276">
-        <v>2795</v>
       </c>
       <c r="G276">
         <v>15.7</v>
@@ -23095,10 +23098,10 @@
         <v>133</v>
       </c>
       <c r="E277">
+        <v>3410</v>
+      </c>
+      <c r="F277">
         <v>16.2</v>
-      </c>
-      <c r="F277">
-        <v>3410</v>
       </c>
       <c r="G277">
         <v>15.8</v>
@@ -23127,10 +23130,10 @@
         <v>71</v>
       </c>
       <c r="E278">
+        <v>1990</v>
+      </c>
+      <c r="F278">
         <v>31.5</v>
-      </c>
-      <c r="F278">
-        <v>1990</v>
       </c>
       <c r="G278">
         <v>14.9</v>
@@ -23159,10 +23162,10 @@
         <v>68</v>
       </c>
       <c r="E279">
+        <v>2135</v>
+      </c>
+      <c r="F279">
         <v>29.5</v>
-      </c>
-      <c r="F279">
-        <v>2135</v>
       </c>
       <c r="G279">
         <v>16.600000000000001</v>
@@ -23191,10 +23194,10 @@
         <v>115</v>
       </c>
       <c r="E280">
+        <v>3245</v>
+      </c>
+      <c r="F280">
         <v>21.5</v>
-      </c>
-      <c r="F280">
-        <v>3245</v>
       </c>
       <c r="G280">
         <v>15.4</v>
@@ -23223,10 +23226,10 @@
         <v>85</v>
       </c>
       <c r="E281">
+        <v>2990</v>
+      </c>
+      <c r="F281">
         <v>19.8</v>
-      </c>
-      <c r="F281">
-        <v>2990</v>
       </c>
       <c r="G281">
         <v>18.2</v>
@@ -23255,10 +23258,10 @@
         <v>88</v>
       </c>
       <c r="E282">
+        <v>2890</v>
+      </c>
+      <c r="F282">
         <v>22.3</v>
-      </c>
-      <c r="F282">
-        <v>2890</v>
       </c>
       <c r="G282">
         <v>17.3</v>
@@ -23287,10 +23290,10 @@
         <v>90</v>
       </c>
       <c r="E283">
+        <v>3265</v>
+      </c>
+      <c r="F283">
         <v>20.2</v>
-      </c>
-      <c r="F283">
-        <v>3265</v>
       </c>
       <c r="G283">
         <v>18.2</v>
@@ -23319,10 +23322,10 @@
         <v>110</v>
       </c>
       <c r="E284">
+        <v>3360</v>
+      </c>
+      <c r="F284">
         <v>20.6</v>
-      </c>
-      <c r="F284">
-        <v>3360</v>
       </c>
       <c r="G284">
         <v>16.600000000000001</v>
@@ -23351,10 +23354,10 @@
         <v>130</v>
       </c>
       <c r="E285">
+        <v>3840</v>
+      </c>
+      <c r="F285">
         <v>17</v>
-      </c>
-      <c r="F285">
-        <v>3840</v>
       </c>
       <c r="G285">
         <v>15.4</v>
@@ -23383,10 +23386,10 @@
         <v>129</v>
       </c>
       <c r="E286">
+        <v>3725</v>
+      </c>
+      <c r="F286">
         <v>17.600000000000001</v>
-      </c>
-      <c r="F286">
-        <v>3725</v>
       </c>
       <c r="G286">
         <v>13.4</v>
@@ -23415,10 +23418,10 @@
         <v>138</v>
       </c>
       <c r="E287">
+        <v>3955</v>
+      </c>
+      <c r="F287">
         <v>16.5</v>
-      </c>
-      <c r="F287">
-        <v>3955</v>
       </c>
       <c r="G287">
         <v>13.2</v>
@@ -23447,10 +23450,10 @@
         <v>135</v>
       </c>
       <c r="E288">
+        <v>3830</v>
+      </c>
+      <c r="F288">
         <v>18.2</v>
-      </c>
-      <c r="F288">
-        <v>3830</v>
       </c>
       <c r="G288">
         <v>15.2</v>
@@ -23479,10 +23482,10 @@
         <v>155</v>
       </c>
       <c r="E289">
+        <v>4360</v>
+      </c>
+      <c r="F289">
         <v>16.899999999999999</v>
-      </c>
-      <c r="F289">
-        <v>4360</v>
       </c>
       <c r="G289">
         <v>14.9</v>
@@ -23511,10 +23514,10 @@
         <v>142</v>
       </c>
       <c r="E290">
+        <v>4054</v>
+      </c>
+      <c r="F290">
         <v>15.5</v>
-      </c>
-      <c r="F290">
-        <v>4054</v>
       </c>
       <c r="G290">
         <v>14.3</v>
@@ -23543,10 +23546,10 @@
         <v>125</v>
       </c>
       <c r="E291">
+        <v>3605</v>
+      </c>
+      <c r="F291">
         <v>19.2</v>
-      </c>
-      <c r="F291">
-        <v>3605</v>
       </c>
       <c r="G291">
         <v>15</v>
@@ -23575,10 +23578,10 @@
         <v>150</v>
       </c>
       <c r="E292">
+        <v>3940</v>
+      </c>
+      <c r="F292">
         <v>18.5</v>
-      </c>
-      <c r="F292">
-        <v>3940</v>
       </c>
       <c r="G292">
         <v>13</v>
@@ -23607,10 +23610,10 @@
         <v>71</v>
       </c>
       <c r="E293">
+        <v>1925</v>
+      </c>
+      <c r="F293">
         <v>31.9</v>
-      </c>
-      <c r="F293">
-        <v>1925</v>
       </c>
       <c r="G293">
         <v>14</v>
@@ -23639,10 +23642,10 @@
         <v>65</v>
       </c>
       <c r="E294">
+        <v>1975</v>
+      </c>
+      <c r="F294">
         <v>34.1</v>
-      </c>
-      <c r="F294">
-        <v>1975</v>
       </c>
       <c r="G294">
         <v>15.2</v>
@@ -23671,10 +23674,10 @@
         <v>80</v>
       </c>
       <c r="E295">
+        <v>1915</v>
+      </c>
+      <c r="F295">
         <v>35.700000000000003</v>
-      </c>
-      <c r="F295">
-        <v>1915</v>
       </c>
       <c r="G295">
         <v>14.4</v>
@@ -23703,10 +23706,10 @@
         <v>80</v>
       </c>
       <c r="E296">
+        <v>2670</v>
+      </c>
+      <c r="F296">
         <v>27.4</v>
-      </c>
-      <c r="F296">
-        <v>2670</v>
       </c>
       <c r="G296">
         <v>15</v>
@@ -23735,10 +23738,10 @@
         <v>77</v>
       </c>
       <c r="E297">
+        <v>3530</v>
+      </c>
+      <c r="F297">
         <v>25.4</v>
-      </c>
-      <c r="F297">
-        <v>3530</v>
       </c>
       <c r="G297">
         <v>20.100000000000001</v>
@@ -23767,10 +23770,10 @@
         <v>125</v>
       </c>
       <c r="E298">
+        <v>3900</v>
+      </c>
+      <c r="F298">
         <v>23</v>
-      </c>
-      <c r="F298">
-        <v>3900</v>
       </c>
       <c r="G298">
         <v>17.399999999999999</v>
@@ -23799,10 +23802,10 @@
         <v>71</v>
       </c>
       <c r="E299">
+        <v>3190</v>
+      </c>
+      <c r="F299">
         <v>27.2</v>
-      </c>
-      <c r="F299">
-        <v>3190</v>
       </c>
       <c r="G299">
         <v>24.8</v>
@@ -23831,10 +23834,10 @@
         <v>90</v>
       </c>
       <c r="E300">
+        <v>3420</v>
+      </c>
+      <c r="F300">
         <v>23.9</v>
-      </c>
-      <c r="F300">
-        <v>3420</v>
       </c>
       <c r="G300">
         <v>22.2</v>
@@ -23863,10 +23866,10 @@
         <v>70</v>
       </c>
       <c r="E301">
+        <v>2200</v>
+      </c>
+      <c r="F301">
         <v>34.200000000000003</v>
-      </c>
-      <c r="F301">
-        <v>2200</v>
       </c>
       <c r="G301">
         <v>13.2</v>
@@ -23895,10 +23898,10 @@
         <v>70</v>
       </c>
       <c r="E302">
+        <v>2150</v>
+      </c>
+      <c r="F302">
         <v>34.5</v>
-      </c>
-      <c r="F302">
-        <v>2150</v>
       </c>
       <c r="G302">
         <v>14.9</v>
@@ -23927,10 +23930,10 @@
         <v>65</v>
       </c>
       <c r="E303">
+        <v>2020</v>
+      </c>
+      <c r="F303">
         <v>31.8</v>
-      </c>
-      <c r="F303">
-        <v>2020</v>
       </c>
       <c r="G303">
         <v>19.2</v>
@@ -23959,10 +23962,10 @@
         <v>69</v>
       </c>
       <c r="E304">
+        <v>2130</v>
+      </c>
+      <c r="F304">
         <v>37.299999999999997</v>
-      </c>
-      <c r="F304">
-        <v>2130</v>
       </c>
       <c r="G304">
         <v>14.7</v>
@@ -23991,10 +23994,10 @@
         <v>90</v>
       </c>
       <c r="E305">
+        <v>2670</v>
+      </c>
+      <c r="F305">
         <v>28.4</v>
-      </c>
-      <c r="F305">
-        <v>2670</v>
       </c>
       <c r="G305">
         <v>16</v>
@@ -24023,10 +24026,10 @@
         <v>115</v>
       </c>
       <c r="E306">
+        <v>2595</v>
+      </c>
+      <c r="F306">
         <v>28.8</v>
-      </c>
-      <c r="F306">
-        <v>2595</v>
       </c>
       <c r="G306">
         <v>11.3</v>
@@ -24055,10 +24058,10 @@
         <v>115</v>
       </c>
       <c r="E307">
+        <v>2700</v>
+      </c>
+      <c r="F307">
         <v>26.8</v>
-      </c>
-      <c r="F307">
-        <v>2700</v>
       </c>
       <c r="G307">
         <v>12.9</v>
@@ -24087,10 +24090,10 @@
         <v>90</v>
       </c>
       <c r="E308">
+        <v>2556</v>
+      </c>
+      <c r="F308">
         <v>33.5</v>
-      </c>
-      <c r="F308">
-        <v>2556</v>
       </c>
       <c r="G308">
         <v>13.2</v>
@@ -24119,10 +24122,10 @@
         <v>76</v>
       </c>
       <c r="E309">
+        <v>2144</v>
+      </c>
+      <c r="F309">
         <v>41.5</v>
-      </c>
-      <c r="F309">
-        <v>2144</v>
       </c>
       <c r="G309">
         <v>14.7</v>
@@ -24151,10 +24154,10 @@
         <v>60</v>
       </c>
       <c r="E310">
+        <v>1968</v>
+      </c>
+      <c r="F310">
         <v>38.1</v>
-      </c>
-      <c r="F310">
-        <v>1968</v>
       </c>
       <c r="G310">
         <v>18.8</v>
@@ -24183,10 +24186,10 @@
         <v>70</v>
       </c>
       <c r="E311">
+        <v>2120</v>
+      </c>
+      <c r="F311">
         <v>32.1</v>
-      </c>
-      <c r="F311">
-        <v>2120</v>
       </c>
       <c r="G311">
         <v>15.5</v>
@@ -24215,10 +24218,10 @@
         <v>65</v>
       </c>
       <c r="E312">
+        <v>2019</v>
+      </c>
+      <c r="F312">
         <v>37.200000000000003</v>
-      </c>
-      <c r="F312">
-        <v>2019</v>
       </c>
       <c r="G312">
         <v>16.399999999999999</v>
@@ -24247,10 +24250,10 @@
         <v>90</v>
       </c>
       <c r="E313">
+        <v>2678</v>
+      </c>
+      <c r="F313">
         <v>28</v>
-      </c>
-      <c r="F313">
-        <v>2678</v>
       </c>
       <c r="G313">
         <v>16.5</v>
@@ -24279,10 +24282,10 @@
         <v>88</v>
       </c>
       <c r="E314">
+        <v>2870</v>
+      </c>
+      <c r="F314">
         <v>26.4</v>
-      </c>
-      <c r="F314">
-        <v>2870</v>
       </c>
       <c r="G314">
         <v>18.100000000000001</v>
@@ -24311,10 +24314,10 @@
         <v>90</v>
       </c>
       <c r="E315">
+        <v>3003</v>
+      </c>
+      <c r="F315">
         <v>24.3</v>
-      </c>
-      <c r="F315">
-        <v>3003</v>
       </c>
       <c r="G315">
         <v>20.100000000000001</v>
@@ -24343,10 +24346,10 @@
         <v>90</v>
       </c>
       <c r="E316">
+        <v>3381</v>
+      </c>
+      <c r="F316">
         <v>19.100000000000001</v>
-      </c>
-      <c r="F316">
-        <v>3381</v>
       </c>
       <c r="G316">
         <v>18.7</v>
@@ -24375,10 +24378,10 @@
         <v>78</v>
       </c>
       <c r="E317">
+        <v>2188</v>
+      </c>
+      <c r="F317">
         <v>34.299999999999997</v>
-      </c>
-      <c r="F317">
-        <v>2188</v>
       </c>
       <c r="G317">
         <v>15.8</v>
@@ -24407,10 +24410,10 @@
         <v>90</v>
       </c>
       <c r="E318">
+        <v>2711</v>
+      </c>
+      <c r="F318">
         <v>29.8</v>
-      </c>
-      <c r="F318">
-        <v>2711</v>
       </c>
       <c r="G318">
         <v>15.5</v>
@@ -24439,10 +24442,10 @@
         <v>75</v>
       </c>
       <c r="E319">
+        <v>2542</v>
+      </c>
+      <c r="F319">
         <v>31.3</v>
-      </c>
-      <c r="F319">
-        <v>2542</v>
       </c>
       <c r="G319">
         <v>17.5</v>
@@ -24471,10 +24474,10 @@
         <v>92</v>
       </c>
       <c r="E320">
+        <v>2434</v>
+      </c>
+      <c r="F320">
         <v>37</v>
-      </c>
-      <c r="F320">
-        <v>2434</v>
       </c>
       <c r="G320">
         <v>15</v>
@@ -24503,10 +24506,10 @@
         <v>75</v>
       </c>
       <c r="E321">
+        <v>2265</v>
+      </c>
+      <c r="F321">
         <v>32.200000000000003</v>
-      </c>
-      <c r="F321">
-        <v>2265</v>
       </c>
       <c r="G321">
         <v>15.2</v>
@@ -24535,10 +24538,10 @@
         <v>65</v>
       </c>
       <c r="E322">
+        <v>2110</v>
+      </c>
+      <c r="F322">
         <v>46.6</v>
-      </c>
-      <c r="F322">
-        <v>2110</v>
       </c>
       <c r="G322">
         <v>17.899999999999999</v>
@@ -24567,10 +24570,10 @@
         <v>105</v>
       </c>
       <c r="E323">
+        <v>2800</v>
+      </c>
+      <c r="F323">
         <v>27.9</v>
-      </c>
-      <c r="F323">
-        <v>2800</v>
       </c>
       <c r="G323">
         <v>14.4</v>
@@ -24599,10 +24602,10 @@
         <v>65</v>
       </c>
       <c r="E324">
+        <v>2110</v>
+      </c>
+      <c r="F324">
         <v>40.799999999999997</v>
-      </c>
-      <c r="F324">
-        <v>2110</v>
       </c>
       <c r="G324">
         <v>19.2</v>
@@ -24631,10 +24634,10 @@
         <v>48</v>
       </c>
       <c r="E325">
+        <v>2085</v>
+      </c>
+      <c r="F325">
         <v>44.3</v>
-      </c>
-      <c r="F325">
-        <v>2085</v>
       </c>
       <c r="G325">
         <v>21.7</v>
@@ -24663,10 +24666,10 @@
         <v>48</v>
       </c>
       <c r="E326">
+        <v>2335</v>
+      </c>
+      <c r="F326">
         <v>43.4</v>
-      </c>
-      <c r="F326">
-        <v>2335</v>
       </c>
       <c r="G326">
         <v>23.7</v>
@@ -24695,10 +24698,10 @@
         <v>67</v>
       </c>
       <c r="E327">
+        <v>2950</v>
+      </c>
+      <c r="F327">
         <v>36.4</v>
-      </c>
-      <c r="F327">
-        <v>2950</v>
       </c>
       <c r="G327">
         <v>19.899999999999999</v>
@@ -24727,10 +24730,10 @@
         <v>67</v>
       </c>
       <c r="E328">
+        <v>3250</v>
+      </c>
+      <c r="F328">
         <v>30</v>
-      </c>
-      <c r="F328">
-        <v>3250</v>
       </c>
       <c r="G328">
         <v>21.8</v>
@@ -24759,10 +24762,10 @@
         <v>67</v>
       </c>
       <c r="E329">
+        <v>1850</v>
+      </c>
+      <c r="F329">
         <v>44.6</v>
-      </c>
-      <c r="F329">
-        <v>1850</v>
       </c>
       <c r="G329">
         <v>13.8</v>
@@ -24791,10 +24794,10 @@
         <v>67</v>
       </c>
       <c r="E330">
+        <v>2145</v>
+      </c>
+      <c r="F330">
         <v>33.799999999999997</v>
-      </c>
-      <c r="F330">
-        <v>2145</v>
       </c>
       <c r="G330">
         <v>18</v>
@@ -24823,10 +24826,10 @@
         <v>62</v>
       </c>
       <c r="E331">
+        <v>1845</v>
+      </c>
+      <c r="F331">
         <v>29.8</v>
-      </c>
-      <c r="F331">
-        <v>1845</v>
       </c>
       <c r="G331">
         <v>15.3</v>
@@ -24855,10 +24858,10 @@
         <v>132</v>
       </c>
       <c r="E332">
+        <v>2910</v>
+      </c>
+      <c r="F332">
         <v>32.700000000000003</v>
-      </c>
-      <c r="F332">
-        <v>2910</v>
       </c>
       <c r="G332">
         <v>11.4</v>
@@ -24887,10 +24890,10 @@
         <v>100</v>
       </c>
       <c r="E333">
+        <v>2420</v>
+      </c>
+      <c r="F333">
         <v>23.7</v>
-      </c>
-      <c r="F333">
-        <v>2420</v>
       </c>
       <c r="G333">
         <v>12.5</v>
@@ -24919,10 +24922,10 @@
         <v>88</v>
       </c>
       <c r="E334">
+        <v>2500</v>
+      </c>
+      <c r="F334">
         <v>35</v>
-      </c>
-      <c r="F334">
-        <v>2500</v>
       </c>
       <c r="G334">
         <v>15.1</v>
@@ -24951,10 +24954,10 @@
         <v>72</v>
       </c>
       <c r="E335">
+        <v>2290</v>
+      </c>
+      <c r="F335">
         <v>32.4</v>
-      </c>
-      <c r="F335">
-        <v>2290</v>
       </c>
       <c r="G335">
         <v>17</v>
@@ -24983,10 +24986,10 @@
         <v>84</v>
       </c>
       <c r="E336">
+        <v>2490</v>
+      </c>
+      <c r="F336">
         <v>27.2</v>
-      </c>
-      <c r="F336">
-        <v>2490</v>
       </c>
       <c r="G336">
         <v>15.7</v>
@@ -25015,10 +25018,10 @@
         <v>84</v>
       </c>
       <c r="E337">
+        <v>2635</v>
+      </c>
+      <c r="F337">
         <v>26.6</v>
-      </c>
-      <c r="F337">
-        <v>2635</v>
       </c>
       <c r="G337">
         <v>16.399999999999999</v>
@@ -25047,10 +25050,10 @@
         <v>92</v>
       </c>
       <c r="E338">
+        <v>2620</v>
+      </c>
+      <c r="F338">
         <v>25.8</v>
-      </c>
-      <c r="F338">
-        <v>2620</v>
       </c>
       <c r="G338">
         <v>14.4</v>
@@ -25079,10 +25082,10 @@
         <v>110</v>
       </c>
       <c r="E339">
+        <v>2725</v>
+      </c>
+      <c r="F339">
         <v>23.5</v>
-      </c>
-      <c r="F339">
-        <v>2725</v>
       </c>
       <c r="G339">
         <v>12.6</v>
@@ -25111,10 +25114,10 @@
         <v>84</v>
       </c>
       <c r="E340">
+        <v>2385</v>
+      </c>
+      <c r="F340">
         <v>30</v>
-      </c>
-      <c r="F340">
-        <v>2385</v>
       </c>
       <c r="G340">
         <v>12.9</v>
@@ -25143,10 +25146,10 @@
         <v>58</v>
       </c>
       <c r="E341">
+        <v>1755</v>
+      </c>
+      <c r="F341">
         <v>39.1</v>
-      </c>
-      <c r="F341">
-        <v>1755</v>
       </c>
       <c r="G341">
         <v>16.899999999999999</v>
@@ -25175,10 +25178,10 @@
         <v>64</v>
       </c>
       <c r="E342">
+        <v>1875</v>
+      </c>
+      <c r="F342">
         <v>39</v>
-      </c>
-      <c r="F342">
-        <v>1875</v>
       </c>
       <c r="G342">
         <v>16.399999999999999</v>
@@ -25207,10 +25210,10 @@
         <v>60</v>
       </c>
       <c r="E343">
+        <v>1760</v>
+      </c>
+      <c r="F343">
         <v>35.1</v>
-      </c>
-      <c r="F343">
-        <v>1760</v>
       </c>
       <c r="G343">
         <v>16.100000000000001</v>
@@ -25239,10 +25242,10 @@
         <v>67</v>
       </c>
       <c r="E344">
+        <v>2065</v>
+      </c>
+      <c r="F344">
         <v>32.299999999999997</v>
-      </c>
-      <c r="F344">
-        <v>2065</v>
       </c>
       <c r="G344">
         <v>17.8</v>
@@ -25271,10 +25274,10 @@
         <v>65</v>
       </c>
       <c r="E345">
+        <v>1975</v>
+      </c>
+      <c r="F345">
         <v>37</v>
-      </c>
-      <c r="F345">
-        <v>1975</v>
       </c>
       <c r="G345">
         <v>19.399999999999999</v>
@@ -25303,10 +25306,10 @@
         <v>62</v>
       </c>
       <c r="E346">
+        <v>2050</v>
+      </c>
+      <c r="F346">
         <v>37.700000000000003</v>
-      </c>
-      <c r="F346">
-        <v>2050</v>
       </c>
       <c r="G346">
         <v>17.3</v>
@@ -25335,10 +25338,10 @@
         <v>68</v>
       </c>
       <c r="E347">
+        <v>1985</v>
+      </c>
+      <c r="F347">
         <v>34.1</v>
-      </c>
-      <c r="F347">
-        <v>1985</v>
       </c>
       <c r="G347">
         <v>16</v>
@@ -25367,10 +25370,10 @@
         <v>63</v>
       </c>
       <c r="E348">
+        <v>2215</v>
+      </c>
+      <c r="F348">
         <v>34.700000000000003</v>
-      </c>
-      <c r="F348">
-        <v>2215</v>
       </c>
       <c r="G348">
         <v>14.9</v>
@@ -25399,10 +25402,10 @@
         <v>65</v>
       </c>
       <c r="E349">
+        <v>2045</v>
+      </c>
+      <c r="F349">
         <v>34.4</v>
-      </c>
-      <c r="F349">
-        <v>2045</v>
       </c>
       <c r="G349">
         <v>16.2</v>
@@ -25431,10 +25434,10 @@
         <v>65</v>
       </c>
       <c r="E350">
+        <v>2380</v>
+      </c>
+      <c r="F350">
         <v>29.9</v>
-      </c>
-      <c r="F350">
-        <v>2380</v>
       </c>
       <c r="G350">
         <v>20.7</v>
@@ -25463,10 +25466,10 @@
         <v>74</v>
       </c>
       <c r="E351">
+        <v>2190</v>
+      </c>
+      <c r="F351">
         <v>33</v>
-      </c>
-      <c r="F351">
-        <v>2190</v>
       </c>
       <c r="G351">
         <v>14.2</v>
@@ -25495,10 +25498,10 @@
         <v>75</v>
       </c>
       <c r="E352">
+        <v>2210</v>
+      </c>
+      <c r="F352">
         <v>33.700000000000003</v>
-      </c>
-      <c r="F352">
-        <v>2210</v>
       </c>
       <c r="G352">
         <v>14.4</v>
@@ -25527,10 +25530,10 @@
         <v>75</v>
       </c>
       <c r="E353">
+        <v>2350</v>
+      </c>
+      <c r="F353">
         <v>32.4</v>
-      </c>
-      <c r="F353">
-        <v>2350</v>
       </c>
       <c r="G353">
         <v>16.8</v>
@@ -25559,10 +25562,10 @@
         <v>100</v>
       </c>
       <c r="E354">
+        <v>2615</v>
+      </c>
+      <c r="F354">
         <v>32.9</v>
-      </c>
-      <c r="F354">
-        <v>2615</v>
       </c>
       <c r="G354">
         <v>14.8</v>
@@ -25591,10 +25594,10 @@
         <v>74</v>
       </c>
       <c r="E355">
+        <v>2635</v>
+      </c>
+      <c r="F355">
         <v>31.6</v>
-      </c>
-      <c r="F355">
-        <v>2635</v>
       </c>
       <c r="G355">
         <v>18.3</v>
@@ -25623,10 +25626,10 @@
         <v>80</v>
       </c>
       <c r="E356">
+        <v>3230</v>
+      </c>
+      <c r="F356">
         <v>28.1</v>
-      </c>
-      <c r="F356">
-        <v>3230</v>
       </c>
       <c r="G356">
         <v>20.399999999999999</v>
@@ -25655,10 +25658,10 @@
         <v>76</v>
       </c>
       <c r="E357">
+        <v>3160</v>
+      </c>
+      <c r="F357">
         <v>30.7</v>
-      </c>
-      <c r="F357">
-        <v>3160</v>
       </c>
       <c r="G357">
         <v>19.600000000000001</v>
@@ -25687,10 +25690,10 @@
         <v>116</v>
       </c>
       <c r="E358">
+        <v>2900</v>
+      </c>
+      <c r="F358">
         <v>25.4</v>
-      </c>
-      <c r="F358">
-        <v>2900</v>
       </c>
       <c r="G358">
         <v>12.6</v>
@@ -25719,10 +25722,10 @@
         <v>120</v>
       </c>
       <c r="E359">
+        <v>2930</v>
+      </c>
+      <c r="F359">
         <v>24.2</v>
-      </c>
-      <c r="F359">
-        <v>2930</v>
       </c>
       <c r="G359">
         <v>13.8</v>
@@ -25751,10 +25754,10 @@
         <v>110</v>
       </c>
       <c r="E360">
+        <v>3415</v>
+      </c>
+      <c r="F360">
         <v>22.4</v>
-      </c>
-      <c r="F360">
-        <v>3415</v>
       </c>
       <c r="G360">
         <v>15.8</v>
@@ -25783,10 +25786,10 @@
         <v>105</v>
       </c>
       <c r="E361">
+        <v>3725</v>
+      </c>
+      <c r="F361">
         <v>26.6</v>
-      </c>
-      <c r="F361">
-        <v>3725</v>
       </c>
       <c r="G361">
         <v>19</v>
@@ -25815,10 +25818,10 @@
         <v>88</v>
       </c>
       <c r="E362">
+        <v>3060</v>
+      </c>
+      <c r="F362">
         <v>20.2</v>
-      </c>
-      <c r="F362">
-        <v>3060</v>
       </c>
       <c r="G362">
         <v>17.100000000000001</v>
@@ -25847,10 +25850,10 @@
         <v>85</v>
       </c>
       <c r="E363">
+        <v>3465</v>
+      </c>
+      <c r="F363">
         <v>17.600000000000001</v>
-      </c>
-      <c r="F363">
-        <v>3465</v>
       </c>
       <c r="G363">
         <v>16.600000000000001</v>
@@ -25879,10 +25882,10 @@
         <v>88</v>
       </c>
       <c r="E364">
+        <v>2605</v>
+      </c>
+      <c r="F364">
         <v>28</v>
-      </c>
-      <c r="F364">
-        <v>2605</v>
       </c>
       <c r="G364">
         <v>19.600000000000001</v>
@@ -25911,10 +25914,10 @@
         <v>88</v>
       </c>
       <c r="E365">
+        <v>2640</v>
+      </c>
+      <c r="F365">
         <v>27</v>
-      </c>
-      <c r="F365">
-        <v>2640</v>
       </c>
       <c r="G365">
         <v>18.600000000000001</v>
@@ -25943,10 +25946,10 @@
         <v>88</v>
       </c>
       <c r="E366">
+        <v>2395</v>
+      </c>
+      <c r="F366">
         <v>34</v>
-      </c>
-      <c r="F366">
-        <v>2395</v>
       </c>
       <c r="G366">
         <v>18</v>
@@ -25975,10 +25978,10 @@
         <v>85</v>
       </c>
       <c r="E367">
+        <v>2575</v>
+      </c>
+      <c r="F367">
         <v>31</v>
-      </c>
-      <c r="F367">
-        <v>2575</v>
       </c>
       <c r="G367">
         <v>16.2</v>
@@ -26007,10 +26010,10 @@
         <v>84</v>
       </c>
       <c r="E368">
+        <v>2525</v>
+      </c>
+      <c r="F368">
         <v>29</v>
-      </c>
-      <c r="F368">
-        <v>2525</v>
       </c>
       <c r="G368">
         <v>16</v>
@@ -26039,10 +26042,10 @@
         <v>90</v>
       </c>
       <c r="E369">
+        <v>2735</v>
+      </c>
+      <c r="F369">
         <v>27</v>
-      </c>
-      <c r="F369">
-        <v>2735</v>
       </c>
       <c r="G369">
         <v>18</v>
@@ -26071,10 +26074,10 @@
         <v>92</v>
       </c>
       <c r="E370">
+        <v>2865</v>
+      </c>
+      <c r="F370">
         <v>24</v>
-      </c>
-      <c r="F370">
-        <v>2865</v>
       </c>
       <c r="G370">
         <v>16.399999999999999</v>
@@ -26103,10 +26106,10 @@
         <v>74</v>
       </c>
       <c r="E371">
+        <v>1980</v>
+      </c>
+      <c r="F371">
         <v>36</v>
-      </c>
-      <c r="F371">
-        <v>1980</v>
       </c>
       <c r="G371">
         <v>15.3</v>
@@ -26135,10 +26138,10 @@
         <v>68</v>
       </c>
       <c r="E372">
+        <v>2025</v>
+      </c>
+      <c r="F372">
         <v>37</v>
-      </c>
-      <c r="F372">
-        <v>2025</v>
       </c>
       <c r="G372">
         <v>18.2</v>
@@ -26167,10 +26170,10 @@
         <v>68</v>
       </c>
       <c r="E373">
+        <v>1970</v>
+      </c>
+      <c r="F373">
         <v>31</v>
-      </c>
-      <c r="F373">
-        <v>1970</v>
       </c>
       <c r="G373">
         <v>17.600000000000001</v>
@@ -26199,10 +26202,10 @@
         <v>63</v>
       </c>
       <c r="E374">
+        <v>2125</v>
+      </c>
+      <c r="F374">
         <v>38</v>
-      </c>
-      <c r="F374">
-        <v>2125</v>
       </c>
       <c r="G374">
         <v>14.7</v>
@@ -26231,10 +26234,10 @@
         <v>70</v>
       </c>
       <c r="E375">
+        <v>2125</v>
+      </c>
+      <c r="F375">
         <v>36</v>
-      </c>
-      <c r="F375">
-        <v>2125</v>
       </c>
       <c r="G375">
         <v>17.3</v>
@@ -26263,10 +26266,10 @@
         <v>88</v>
       </c>
       <c r="E376">
+        <v>2160</v>
+      </c>
+      <c r="F376">
         <v>36</v>
-      </c>
-      <c r="F376">
-        <v>2160</v>
       </c>
       <c r="G376">
         <v>14.5</v>
@@ -26295,10 +26298,10 @@
         <v>75</v>
       </c>
       <c r="E377">
+        <v>2205</v>
+      </c>
+      <c r="F377">
         <v>36</v>
-      </c>
-      <c r="F377">
-        <v>2205</v>
       </c>
       <c r="G377">
         <v>14.5</v>
@@ -26327,10 +26330,10 @@
         <v>70</v>
       </c>
       <c r="E378">
+        <v>2245</v>
+      </c>
+      <c r="F378">
         <v>34</v>
-      </c>
-      <c r="F378">
-        <v>2245</v>
       </c>
       <c r="G378">
         <v>16.899999999999999</v>
@@ -26359,10 +26362,10 @@
         <v>67</v>
       </c>
       <c r="E379">
+        <v>1965</v>
+      </c>
+      <c r="F379">
         <v>38</v>
-      </c>
-      <c r="F379">
-        <v>1965</v>
       </c>
       <c r="G379">
         <v>15</v>
@@ -26391,10 +26394,10 @@
         <v>67</v>
       </c>
       <c r="E380">
+        <v>1965</v>
+      </c>
+      <c r="F380">
         <v>32</v>
-      </c>
-      <c r="F380">
-        <v>1965</v>
       </c>
       <c r="G380">
         <v>15.7</v>
@@ -26423,10 +26426,10 @@
         <v>67</v>
       </c>
       <c r="E381">
+        <v>1995</v>
+      </c>
+      <c r="F381">
         <v>38</v>
-      </c>
-      <c r="F381">
-        <v>1995</v>
       </c>
       <c r="G381">
         <v>16.2</v>
@@ -26455,10 +26458,10 @@
         <v>110</v>
       </c>
       <c r="E382">
+        <v>2945</v>
+      </c>
+      <c r="F382">
         <v>25</v>
-      </c>
-      <c r="F382">
-        <v>2945</v>
       </c>
       <c r="G382">
         <v>16.399999999999999</v>
@@ -26487,10 +26490,10 @@
         <v>85</v>
       </c>
       <c r="E383">
+        <v>3015</v>
+      </c>
+      <c r="F383">
         <v>38</v>
-      </c>
-      <c r="F383">
-        <v>3015</v>
       </c>
       <c r="G383">
         <v>17</v>
@@ -26519,10 +26522,10 @@
         <v>92</v>
       </c>
       <c r="E384">
+        <v>2585</v>
+      </c>
+      <c r="F384">
         <v>26</v>
-      </c>
-      <c r="F384">
-        <v>2585</v>
       </c>
       <c r="G384">
         <v>14.5</v>
@@ -26551,10 +26554,10 @@
         <v>112</v>
       </c>
       <c r="E385">
+        <v>2835</v>
+      </c>
+      <c r="F385">
         <v>22</v>
-      </c>
-      <c r="F385">
-        <v>2835</v>
       </c>
       <c r="G385">
         <v>14.7</v>
@@ -26583,10 +26586,10 @@
         <v>96</v>
       </c>
       <c r="E386">
+        <v>2665</v>
+      </c>
+      <c r="F386">
         <v>32</v>
-      </c>
-      <c r="F386">
-        <v>2665</v>
       </c>
       <c r="G386">
         <v>13.9</v>
@@ -26615,10 +26618,10 @@
         <v>84</v>
       </c>
       <c r="E387">
+        <v>2370</v>
+      </c>
+      <c r="F387">
         <v>36</v>
-      </c>
-      <c r="F387">
-        <v>2370</v>
       </c>
       <c r="G387">
         <v>13</v>
@@ -26647,10 +26650,10 @@
         <v>90</v>
       </c>
       <c r="E388">
+        <v>2950</v>
+      </c>
+      <c r="F388">
         <v>27</v>
-      </c>
-      <c r="F388">
-        <v>2950</v>
       </c>
       <c r="G388">
         <v>17.3</v>
@@ -26679,10 +26682,10 @@
         <v>86</v>
       </c>
       <c r="E389">
+        <v>2790</v>
+      </c>
+      <c r="F389">
         <v>27</v>
-      </c>
-      <c r="F389">
-        <v>2790</v>
       </c>
       <c r="G389">
         <v>15.6</v>
@@ -26711,10 +26714,10 @@
         <v>52</v>
       </c>
       <c r="E390">
+        <v>2130</v>
+      </c>
+      <c r="F390">
         <v>44</v>
-      </c>
-      <c r="F390">
-        <v>2130</v>
       </c>
       <c r="G390">
         <v>24.6</v>
@@ -26743,10 +26746,10 @@
         <v>84</v>
       </c>
       <c r="E391">
+        <v>2295</v>
+      </c>
+      <c r="F391">
         <v>32</v>
-      </c>
-      <c r="F391">
-        <v>2295</v>
       </c>
       <c r="G391">
         <v>11.6</v>
@@ -26775,10 +26778,10 @@
         <v>79</v>
       </c>
       <c r="E392">
+        <v>2625</v>
+      </c>
+      <c r="F392">
         <v>28</v>
-      </c>
-      <c r="F392">
-        <v>2625</v>
       </c>
       <c r="G392">
         <v>18.600000000000001</v>
@@ -26807,10 +26810,10 @@
         <v>82</v>
       </c>
       <c r="E393">
+        <v>2720</v>
+      </c>
+      <c r="F393">
         <v>31</v>
-      </c>
-      <c r="F393">
-        <v>2720</v>
       </c>
       <c r="G393">
         <v>19.399999999999999</v>
@@ -26989,8 +26992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/ch-4.xlsx
+++ b/ch-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14867917-DA2F-4AA5-ACF0-C9A6F8E111A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4819E-78DB-44C3-AFBC-2DAC3246BDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -8863,6 +8863,48 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -26992,8 +27034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -27007,8 +27049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/ch-4.xlsx
+++ b/ch-4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A4819E-78DB-44C3-AFBC-2DAC3246BDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD507488-A894-49CE-9F18-24FB007CAE43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="13740" windowWidth="19440" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -1048,6 +1048,9 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Correlation b/w weight and mpg:</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1376,6 +1379,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1559,7 +1568,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1569,6 +1578,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1628,1463 +1638,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>mpg!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mpg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mpg!$F$2:$F$393</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="392"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>43.1</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>32.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>39.4</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>25.1</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>17.7</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>21.1</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>23.8</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>23.9</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>20.3</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>21.6</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>22.3</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>18.2</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>16.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>31.9</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>34.1</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>35.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>27.4</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>25.4</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>23.9</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>34.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>37.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>26.8</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>38.1</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>32.1</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>37.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>26.4</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>24.3</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>34.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>29.8</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>31.3</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>32.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>46.6</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>40.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>43.4</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>36.4</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>44.6</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>29.8</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>32.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>32.4</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>25.8</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>39.1</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>35.1</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>32.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>37.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>34.1</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>34.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>34.4</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>33.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>32.4</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>32.9</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>31.6</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>28.1</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>30.7</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>25.4</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>24.2</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A4A3-4314-BCF9-2DB4D0E05B5D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="896937615"/>
-        <c:axId val="1011570031"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="896937615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1011570031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1011570031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="896937615"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5862,7 +4415,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8645,7 +7198,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8895,9 +7448,7 @@
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
@@ -11525,6 +10076,2877 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="349415776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relationship between mileage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and weight</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpg!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="60325" cap="rnd">
+                <a:noFill/>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0992311654549917E-2"/>
+                  <c:y val="4.2187020620387865E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:t>y = -90.571x + 5101.1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mpg!$F$2:$F$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="392"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>33.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mpg!$E$2:$E$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="392"/>
+                <c:pt idx="0">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4615</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4382</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3439</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3329</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3302</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4209</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4154</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4955</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4746</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5140</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2962</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3282</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1613</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2254</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2226</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4274</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4385</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4135</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4129</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4633</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4456</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4422</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3892</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4098</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2933</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2979</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3672</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4042</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3777</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4952</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4464</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4363</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4237</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4735</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4951</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3821</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3121</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3278</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2904</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4906</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4654</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4499</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2401</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2124</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2472</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4082</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4278</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2582</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3664</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3102</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3336</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3781</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3632</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3613</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4141</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4699</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4457</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4257</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1649</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3264</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3459</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3158</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4498</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4657</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3907</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3897</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3221</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3169</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3211</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2694</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2957</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4190</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3962</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4215</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3353</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3085</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3574</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3645</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3193</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4055</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4140</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4295</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3425</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3630</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3525</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4220</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4165</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4325</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4335</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2815</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3365</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3735</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3155</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2965</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3430</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3380</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3425</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3445</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3140</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2795</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3955</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>4360</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3605</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3940</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3190</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2595</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3381</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2145</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2065</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3230</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3725</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2735</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>2125</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2585</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>2720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F389-416E-89EC-BB6442FB7E34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="210502640"/>
+        <c:axId val="886648128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="210502640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mileage (mpg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886648128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="886648128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weight (pounds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210502640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13801,47 +15223,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1070161</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2526925</xdr:colOff>
-      <xdr:row>379</xdr:row>
-      <xdr:rowOff>211790</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E0A7BC-A631-48DF-8135-CE2DBD2CA31F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -13919,7 +15300,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13954,6 +15335,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>671830</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>226061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A0C10D-31ED-4A87-A246-94DE4AB79C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14277,24 +15696,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J393"/>
+  <dimension ref="A1:M393"/>
   <sheetViews>
-    <sheetView topLeftCell="A353" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G368" sqref="G368"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" customWidth="1"/>
-    <col min="9" max="9" width="12.296875" customWidth="1"/>
+    <col min="4" max="4" width="13.2890625" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="6" max="6" width="13.2890625" customWidth="1"/>
+    <col min="9" max="9" width="12.2890625" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14325,8 +15744,15 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1">
+        <f>CORREL(mpg[weight],mpg[mpg])</f>
+        <v>-0.83224421483157562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14358,7 +15784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14390,7 +15816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14422,7 +15848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14454,7 +15880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14486,7 +15912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14518,7 +15944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14550,7 +15976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14582,7 +16008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14614,7 +16040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14646,7 +16072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14678,7 +16104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14710,7 +16136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14742,7 +16168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14774,7 +16200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14806,7 +16232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14838,7 +16264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14870,7 +16296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14902,7 +16328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14934,7 +16360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14966,7 +16392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14998,7 +16424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15030,7 +16456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15062,7 +16488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15094,7 +16520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15126,7 +16552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15158,7 +16584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15190,7 +16616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15222,7 +16648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15254,7 +16680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15286,7 +16712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15318,7 +16744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15350,7 +16776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15382,7 +16808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15414,7 +16840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15446,7 +16872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15478,7 +16904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -15510,7 +16936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -15542,7 +16968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -15574,7 +17000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -15606,7 +17032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15638,7 +17064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15670,7 +17096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15702,7 +17128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15734,7 +17160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15766,7 +17192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15798,7 +17224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15830,7 +17256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -15862,7 +17288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -15894,7 +17320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -15926,7 +17352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -15958,7 +17384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15990,7 +17416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -16022,7 +17448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -16054,7 +17480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16086,7 +17512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16118,7 +17544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -16150,7 +17576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -16182,7 +17608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -16214,7 +17640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -16246,7 +17672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -16278,7 +17704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -16310,7 +17736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16342,7 +17768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16374,7 +17800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16406,7 +17832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16438,7 +17864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16470,7 +17896,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -16502,7 +17928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -16534,7 +17960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -16566,7 +17992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -16598,7 +18024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -16630,7 +18056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -16662,7 +18088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -16694,7 +18120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -16726,7 +18152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -16758,7 +18184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -16790,7 +18216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -16822,7 +18248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -16854,7 +18280,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -16886,7 +18312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -16918,7 +18344,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -16950,7 +18376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -16982,7 +18408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -17014,7 +18440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -17046,7 +18472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -17078,7 +18504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17110,7 +18536,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17142,7 +18568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17174,7 +18600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -17206,7 +18632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -17238,7 +18664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -17270,7 +18696,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -17302,7 +18728,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -17334,7 +18760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -17366,7 +18792,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17398,7 +18824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A98">
         <v>97</v>
       </c>
@@ -17430,7 +18856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A99">
         <v>98</v>
       </c>
@@ -17462,7 +18888,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -17494,39 +18920,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>6</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>250</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="5">
         <v>88</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="5">
         <v>3021</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="5">
         <v>18</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="5">
         <v>16.5</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="5">
         <v>73</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17558,7 +18984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A103">
         <v>102</v>
       </c>
@@ -17590,7 +19016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A104">
         <v>103</v>
       </c>
@@ -17622,7 +19048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17654,7 +19080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A106">
         <v>105</v>
       </c>
@@ -17686,7 +19112,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A107">
         <v>106</v>
       </c>
@@ -17718,7 +19144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17750,7 +19176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17782,7 +19208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17814,7 +19240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17846,7 +19272,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17878,7 +19304,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17910,7 +19336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17942,7 +19368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17974,7 +19400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A116">
         <v>115</v>
       </c>
@@ -18006,7 +19432,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -18038,7 +19464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A118">
         <v>117</v>
       </c>
@@ -18070,7 +19496,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A119">
         <v>118</v>
       </c>
@@ -18102,7 +19528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -18134,7 +19560,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18166,7 +19592,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18198,7 +19624,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18230,7 +19656,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A124">
         <v>123</v>
       </c>
@@ -18262,7 +19688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A125">
         <v>124</v>
       </c>
@@ -18294,7 +19720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -18326,7 +19752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A127">
         <v>126</v>
       </c>
@@ -18358,7 +19784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -18390,7 +19816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A129">
         <v>128</v>
       </c>
@@ -18422,7 +19848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A130">
         <v>129</v>
       </c>
@@ -18454,7 +19880,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A131">
         <v>130</v>
       </c>
@@ -18486,7 +19912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A132">
         <v>131</v>
       </c>
@@ -18518,7 +19944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A133">
         <v>132</v>
       </c>
@@ -18550,7 +19976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18582,7 +20008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18614,7 +20040,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A136">
         <v>135</v>
       </c>
@@ -18646,7 +20072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18678,7 +20104,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18710,7 +20136,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18742,7 +20168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18774,7 +20200,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18806,7 +20232,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18838,7 +20264,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18870,7 +20296,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18902,7 +20328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18934,7 +20360,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18966,7 +20392,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18998,7 +20424,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A148">
         <v>147</v>
       </c>
@@ -19030,7 +20456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A149">
         <v>148</v>
       </c>
@@ -19062,7 +20488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A150">
         <v>149</v>
       </c>
@@ -19094,7 +20520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A151">
         <v>150</v>
       </c>
@@ -19126,7 +20552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A152">
         <v>151</v>
       </c>
@@ -19158,7 +20584,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19190,7 +20616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A154">
         <v>153</v>
       </c>
@@ -19222,7 +20648,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A155">
         <v>154</v>
       </c>
@@ -19254,7 +20680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A156">
         <v>155</v>
       </c>
@@ -19286,7 +20712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A157">
         <v>156</v>
       </c>
@@ -19318,7 +20744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A158">
         <v>157</v>
       </c>
@@ -19350,7 +20776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A159">
         <v>158</v>
       </c>
@@ -19382,7 +20808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A160">
         <v>159</v>
       </c>
@@ -19414,7 +20840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A161">
         <v>160</v>
       </c>
@@ -19446,7 +20872,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A162">
         <v>161</v>
       </c>
@@ -19478,7 +20904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A163">
         <v>162</v>
       </c>
@@ -19510,7 +20936,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A164">
         <v>163</v>
       </c>
@@ -19542,7 +20968,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A165">
         <v>164</v>
       </c>
@@ -19574,7 +21000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A166">
         <v>165</v>
       </c>
@@ -19606,7 +21032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A167">
         <v>166</v>
       </c>
@@ -19638,7 +21064,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A168">
         <v>167</v>
       </c>
@@ -19670,7 +21096,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19702,7 +21128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19734,7 +21160,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19766,7 +21192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19798,7 +21224,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19830,7 +21256,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19862,7 +21288,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19894,7 +21320,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19926,7 +21352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19958,7 +21384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19990,7 +21416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A179">
         <v>178</v>
       </c>
@@ -20022,7 +21448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A180">
         <v>179</v>
       </c>
@@ -20054,7 +21480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A181">
         <v>180</v>
       </c>
@@ -20086,7 +21512,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20118,7 +21544,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20150,7 +21576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20182,7 +21608,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20214,7 +21640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20246,7 +21672,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20278,7 +21704,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20310,7 +21736,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A189">
         <v>188</v>
       </c>
@@ -20342,7 +21768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A190">
         <v>189</v>
       </c>
@@ -20374,7 +21800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A191">
         <v>190</v>
       </c>
@@ -20406,7 +21832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A192">
         <v>191</v>
       </c>
@@ -20438,7 +21864,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A193">
         <v>192</v>
       </c>
@@ -20470,7 +21896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A194">
         <v>193</v>
       </c>
@@ -20502,7 +21928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A195">
         <v>194</v>
       </c>
@@ -20534,7 +21960,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A196">
         <v>195</v>
       </c>
@@ -20566,7 +21992,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A197">
         <v>196</v>
       </c>
@@ -20598,7 +22024,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A198">
         <v>197</v>
       </c>
@@ -20630,7 +22056,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A199">
         <v>198</v>
       </c>
@@ -20662,7 +22088,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A200">
         <v>199</v>
       </c>
@@ -20694,7 +22120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -20726,7 +22152,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -20758,7 +22184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A203">
         <v>202</v>
       </c>
@@ -20790,7 +22216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A204">
         <v>203</v>
       </c>
@@ -20822,7 +22248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A205">
         <v>204</v>
       </c>
@@ -20854,7 +22280,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A206">
         <v>205</v>
       </c>
@@ -20886,7 +22312,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A207">
         <v>206</v>
       </c>
@@ -20918,7 +22344,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A208">
         <v>207</v>
       </c>
@@ -20950,7 +22376,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A209">
         <v>208</v>
       </c>
@@ -20982,7 +22408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A210">
         <v>209</v>
       </c>
@@ -21014,7 +22440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A211">
         <v>210</v>
       </c>
@@ -21046,7 +22472,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A212">
         <v>211</v>
       </c>
@@ -21078,7 +22504,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A213">
         <v>212</v>
       </c>
@@ -21110,7 +22536,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A214">
         <v>213</v>
       </c>
@@ -21142,7 +22568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A215">
         <v>214</v>
       </c>
@@ -21174,7 +22600,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A216">
         <v>215</v>
       </c>
@@ -21206,7 +22632,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A217">
         <v>216</v>
       </c>
@@ -21238,7 +22664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A218">
         <v>217</v>
       </c>
@@ -21270,7 +22696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A219">
         <v>218</v>
       </c>
@@ -21302,7 +22728,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A220">
         <v>219</v>
       </c>
@@ -21334,7 +22760,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A221">
         <v>220</v>
       </c>
@@ -21366,7 +22792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A222">
         <v>221</v>
       </c>
@@ -21398,7 +22824,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A223">
         <v>222</v>
       </c>
@@ -21430,7 +22856,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A224">
         <v>223</v>
       </c>
@@ -21462,7 +22888,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A225">
         <v>224</v>
       </c>
@@ -21494,7 +22920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A226">
         <v>225</v>
       </c>
@@ -21526,7 +22952,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A227">
         <v>226</v>
       </c>
@@ -21558,7 +22984,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A228">
         <v>227</v>
       </c>
@@ -21590,7 +23016,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A229">
         <v>228</v>
       </c>
@@ -21622,7 +23048,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A230">
         <v>229</v>
       </c>
@@ -21654,7 +23080,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A231">
         <v>230</v>
       </c>
@@ -21686,7 +23112,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A232">
         <v>231</v>
       </c>
@@ -21718,7 +23144,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A233">
         <v>232</v>
       </c>
@@ -21750,7 +23176,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A234">
         <v>233</v>
       </c>
@@ -21782,7 +23208,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A235">
         <v>234</v>
       </c>
@@ -21814,7 +23240,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A236">
         <v>235</v>
       </c>
@@ -21846,7 +23272,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A237">
         <v>236</v>
       </c>
@@ -21878,7 +23304,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A238">
         <v>237</v>
       </c>
@@ -21910,7 +23336,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A239">
         <v>238</v>
       </c>
@@ -21942,7 +23368,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A240">
         <v>239</v>
       </c>
@@ -21974,7 +23400,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A241">
         <v>240</v>
       </c>
@@ -22006,7 +23432,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A242">
         <v>241</v>
       </c>
@@ -22038,7 +23464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A243">
         <v>242</v>
       </c>
@@ -22070,7 +23496,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A244">
         <v>243</v>
       </c>
@@ -22102,7 +23528,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A245">
         <v>244</v>
       </c>
@@ -22134,7 +23560,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A246">
         <v>245</v>
       </c>
@@ -22166,7 +23592,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A247">
         <v>246</v>
       </c>
@@ -22198,7 +23624,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A248">
         <v>247</v>
       </c>
@@ -22230,7 +23656,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A249">
         <v>248</v>
       </c>
@@ -22262,7 +23688,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A250">
         <v>249</v>
       </c>
@@ -22294,7 +23720,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A251">
         <v>250</v>
       </c>
@@ -22326,7 +23752,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A252">
         <v>251</v>
       </c>
@@ -22358,7 +23784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A253">
         <v>252</v>
       </c>
@@ -22390,7 +23816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A254">
         <v>253</v>
       </c>
@@ -22422,7 +23848,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22454,7 +23880,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22486,7 +23912,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A257">
         <v>256</v>
       </c>
@@ -22518,7 +23944,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22550,7 +23976,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22582,7 +24008,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22614,7 +24040,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22646,7 +24072,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A262">
         <v>261</v>
       </c>
@@ -22678,7 +24104,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22710,7 +24136,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22742,7 +24168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22774,7 +24200,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A266">
         <v>265</v>
       </c>
@@ -22806,7 +24232,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A267">
         <v>266</v>
       </c>
@@ -22838,7 +24264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A268">
         <v>267</v>
       </c>
@@ -22870,7 +24296,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A269">
         <v>268</v>
       </c>
@@ -22902,7 +24328,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A270">
         <v>269</v>
       </c>
@@ -22934,7 +24360,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A271">
         <v>270</v>
       </c>
@@ -22966,7 +24392,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A272">
         <v>271</v>
       </c>
@@ -22998,7 +24424,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A273">
         <v>272</v>
       </c>
@@ -23030,7 +24456,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A274">
         <v>273</v>
       </c>
@@ -23062,7 +24488,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A275">
         <v>274</v>
       </c>
@@ -23094,7 +24520,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A276">
         <v>275</v>
       </c>
@@ -23126,7 +24552,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A277">
         <v>276</v>
       </c>
@@ -23158,7 +24584,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A278">
         <v>277</v>
       </c>
@@ -23190,7 +24616,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A279">
         <v>278</v>
       </c>
@@ -23222,7 +24648,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A280">
         <v>279</v>
       </c>
@@ -23254,7 +24680,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A281">
         <v>280</v>
       </c>
@@ -23286,7 +24712,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A282">
         <v>281</v>
       </c>
@@ -23318,7 +24744,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A283">
         <v>282</v>
       </c>
@@ -23350,7 +24776,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A284">
         <v>283</v>
       </c>
@@ -23382,7 +24808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A285">
         <v>284</v>
       </c>
@@ -23414,7 +24840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A286">
         <v>285</v>
       </c>
@@ -23446,7 +24872,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A287">
         <v>286</v>
       </c>
@@ -23478,7 +24904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A288">
         <v>287</v>
       </c>
@@ -23510,7 +24936,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A289">
         <v>288</v>
       </c>
@@ -23542,7 +24968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A290">
         <v>289</v>
       </c>
@@ -23574,7 +25000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A291">
         <v>290</v>
       </c>
@@ -23606,7 +25032,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A292">
         <v>291</v>
       </c>
@@ -23638,7 +25064,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A293">
         <v>292</v>
       </c>
@@ -23670,7 +25096,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A294">
         <v>293</v>
       </c>
@@ -23702,7 +25128,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A295">
         <v>294</v>
       </c>
@@ -23734,7 +25160,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A296">
         <v>295</v>
       </c>
@@ -23766,7 +25192,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A297">
         <v>296</v>
       </c>
@@ -23798,7 +25224,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A298">
         <v>297</v>
       </c>
@@ -23830,7 +25256,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A299">
         <v>298</v>
       </c>
@@ -23862,7 +25288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A300">
         <v>299</v>
       </c>
@@ -23894,7 +25320,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A301">
         <v>300</v>
       </c>
@@ -23926,7 +25352,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A302">
         <v>301</v>
       </c>
@@ -23958,7 +25384,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A303">
         <v>302</v>
       </c>
@@ -23990,7 +25416,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A304">
         <v>303</v>
       </c>
@@ -24022,7 +25448,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A305">
         <v>304</v>
       </c>
@@ -24054,7 +25480,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A306">
         <v>305</v>
       </c>
@@ -24086,7 +25512,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A307">
         <v>306</v>
       </c>
@@ -24118,7 +25544,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A308">
         <v>307</v>
       </c>
@@ -24150,7 +25576,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A309">
         <v>308</v>
       </c>
@@ -24182,7 +25608,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A310">
         <v>309</v>
       </c>
@@ -24214,7 +25640,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A311">
         <v>310</v>
       </c>
@@ -24246,7 +25672,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A312">
         <v>311</v>
       </c>
@@ -24278,7 +25704,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A313">
         <v>312</v>
       </c>
@@ -24310,7 +25736,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A314">
         <v>313</v>
       </c>
@@ -24342,7 +25768,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A315">
         <v>314</v>
       </c>
@@ -24374,7 +25800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A316">
         <v>315</v>
       </c>
@@ -24406,7 +25832,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A317">
         <v>316</v>
       </c>
@@ -24438,7 +25864,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A318">
         <v>317</v>
       </c>
@@ -24470,7 +25896,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A319">
         <v>318</v>
       </c>
@@ -24502,7 +25928,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A320">
         <v>319</v>
       </c>
@@ -24534,7 +25960,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A321">
         <v>320</v>
       </c>
@@ -24566,7 +25992,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A322">
         <v>321</v>
       </c>
@@ -24598,7 +26024,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A323">
         <v>322</v>
       </c>
@@ -24630,7 +26056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A324">
         <v>323</v>
       </c>
@@ -24662,7 +26088,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A325">
         <v>324</v>
       </c>
@@ -24694,7 +26120,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A326">
         <v>325</v>
       </c>
@@ -24726,7 +26152,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A327">
         <v>326</v>
       </c>
@@ -24758,7 +26184,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A328">
         <v>327</v>
       </c>
@@ -24790,7 +26216,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A329">
         <v>328</v>
       </c>
@@ -24822,7 +26248,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A330">
         <v>329</v>
       </c>
@@ -24854,7 +26280,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A331">
         <v>330</v>
       </c>
@@ -24886,7 +26312,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A332">
         <v>331</v>
       </c>
@@ -24918,7 +26344,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A333">
         <v>332</v>
       </c>
@@ -24950,7 +26376,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A334">
         <v>333</v>
       </c>
@@ -24982,7 +26408,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A335">
         <v>334</v>
       </c>
@@ -25014,7 +26440,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A336">
         <v>335</v>
       </c>
@@ -25046,7 +26472,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A337">
         <v>336</v>
       </c>
@@ -25078,7 +26504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A338">
         <v>337</v>
       </c>
@@ -25110,7 +26536,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A339">
         <v>338</v>
       </c>
@@ -25142,7 +26568,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A340">
         <v>339</v>
       </c>
@@ -25174,7 +26600,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A341">
         <v>340</v>
       </c>
@@ -25206,7 +26632,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A342">
         <v>341</v>
       </c>
@@ -25238,7 +26664,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A343">
         <v>342</v>
       </c>
@@ -25270,7 +26696,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A344">
         <v>343</v>
       </c>
@@ -25302,7 +26728,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A345">
         <v>344</v>
       </c>
@@ -25334,7 +26760,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A346">
         <v>345</v>
       </c>
@@ -25366,7 +26792,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A347">
         <v>346</v>
       </c>
@@ -25398,7 +26824,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A348">
         <v>347</v>
       </c>
@@ -25430,7 +26856,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A349">
         <v>348</v>
       </c>
@@ -25462,7 +26888,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A350">
         <v>349</v>
       </c>
@@ -25494,7 +26920,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A351">
         <v>350</v>
       </c>
@@ -25526,7 +26952,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A352">
         <v>351</v>
       </c>
@@ -25558,7 +26984,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A353">
         <v>352</v>
       </c>
@@ -25590,7 +27016,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A354">
         <v>353</v>
       </c>
@@ -25622,7 +27048,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A355">
         <v>354</v>
       </c>
@@ -25654,7 +27080,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A356">
         <v>355</v>
       </c>
@@ -25686,7 +27112,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A357">
         <v>356</v>
       </c>
@@ -25718,7 +27144,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A358">
         <v>357</v>
       </c>
@@ -25750,7 +27176,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A359">
         <v>358</v>
       </c>
@@ -25782,7 +27208,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A360">
         <v>359</v>
       </c>
@@ -25814,7 +27240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A361">
         <v>360</v>
       </c>
@@ -25846,7 +27272,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A362">
         <v>361</v>
       </c>
@@ -25878,7 +27304,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A363">
         <v>362</v>
       </c>
@@ -25910,7 +27336,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A364">
         <v>363</v>
       </c>
@@ -25942,7 +27368,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A365">
         <v>364</v>
       </c>
@@ -25974,7 +27400,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A366">
         <v>365</v>
       </c>
@@ -26006,7 +27432,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A367">
         <v>366</v>
       </c>
@@ -26038,7 +27464,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A368">
         <v>367</v>
       </c>
@@ -26070,7 +27496,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A369">
         <v>368</v>
       </c>
@@ -26102,7 +27528,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A370">
         <v>369</v>
       </c>
@@ -26134,7 +27560,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A371">
         <v>370</v>
       </c>
@@ -26166,7 +27592,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A372">
         <v>371</v>
       </c>
@@ -26198,7 +27624,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A373">
         <v>372</v>
       </c>
@@ -26230,7 +27656,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A374">
         <v>373</v>
       </c>
@@ -26262,7 +27688,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A375">
         <v>374</v>
       </c>
@@ -26294,7 +27720,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A376">
         <v>375</v>
       </c>
@@ -26326,7 +27752,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A377">
         <v>376</v>
       </c>
@@ -26358,7 +27784,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A378">
         <v>377</v>
       </c>
@@ -26390,7 +27816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A379">
         <v>378</v>
       </c>
@@ -26422,7 +27848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A380">
         <v>379</v>
       </c>
@@ -26454,7 +27880,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A381">
         <v>380</v>
       </c>
@@ -26486,7 +27912,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A382">
         <v>381</v>
       </c>
@@ -26518,7 +27944,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A383">
         <v>382</v>
       </c>
@@ -26550,7 +27976,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A384">
         <v>383</v>
       </c>
@@ -26582,7 +28008,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A385">
         <v>384</v>
       </c>
@@ -26614,7 +28040,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A386">
         <v>385</v>
       </c>
@@ -26646,7 +28072,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A387">
         <v>386</v>
       </c>
@@ -26678,7 +28104,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A388">
         <v>387</v>
       </c>
@@ -26710,7 +28136,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A389">
         <v>388</v>
       </c>
@@ -26742,7 +28168,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A390">
         <v>389</v>
       </c>
@@ -26774,7 +28200,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A391">
         <v>390</v>
       </c>
@@ -26806,7 +28232,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A392">
         <v>391</v>
       </c>
@@ -26838,7 +28264,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A393">
         <v>392</v>
       </c>
@@ -26872,9 +28298,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26884,19 +28309,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.2890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.70703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.2890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.70703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -26917,7 +28342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -26930,7 +28355,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -26945,7 +28370,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -26962,7 +28387,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -26981,7 +28406,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -27002,7 +28427,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -27038,7 +28463,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27050,10 +28475,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27068,32 +28493,32 @@
       <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.2890625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.2890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.70703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.2890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.70703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.2890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.70703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>316</v>
       </c>
@@ -27101,7 +28526,7 @@
         <v>0.83224421483157551</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>317</v>
       </c>
@@ -27109,7 +28534,7 @@
         <v>0.69263043312062555</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>318</v>
       </c>
@@ -27117,7 +28542,7 @@
         <v>0.691842306026063</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>319</v>
       </c>
@@ -27125,7 +28550,7 @@
         <v>4.3327120973394591</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
         <v>320</v>
       </c>
@@ -27133,12 +28558,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>326</v>
@@ -27156,7 +28581,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>322</v>
       </c>
@@ -27176,7 +28601,7 @@
         <v>6.0152960514349773E-102</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>323</v>
       </c>
@@ -27192,7 +28617,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
         <v>324</v>
       </c>
@@ -27206,8 +28631,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>331</v>
@@ -27234,7 +28659,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>325</v>
       </c>
@@ -27263,7 +28688,7 @@
         <v>47.786766790201781</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>

--- a/ch-4.xlsx
+++ b/ch-4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD507488-A894-49CE-9F18-24FB007CAE43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EED1D4-C943-48B6-812E-2F6B784BFADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="13740" windowWidth="19440" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="scatterplot" sheetId="3" r:id="rId3"/>
     <sheet name="scatterplot-trend" sheetId="4" r:id="rId4"/>
     <sheet name="regression" sheetId="5" r:id="rId5"/>
+    <sheet name="residuals" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="342">
   <si>
     <t>id</t>
   </si>
@@ -1051,6 +1052,15 @@
   </si>
   <si>
     <t>Correlation b/w weight and mpg:</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>mpg actual</t>
+  </si>
+  <si>
+    <t>mpg predicted</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1523,6 +1533,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1568,7 +1591,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1579,6 +1602,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7457,6 +7481,62 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>mpg!$E$2:$E$393</c:f>
@@ -12995,6 +13075,513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Actual versus predicted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> mpg</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.18097222222222226"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>residuals!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpg actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>residuals!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>residuals!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A230-47D5-A9CA-0EFEC5E7BAE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>residuals!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpg predicted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>residuals!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>residuals!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.420236303645943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.888086216728336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.359979727972263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.862420152321317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.362661307733955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.113902748427474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.669917027564978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.958274317950192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.166554438603363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.117946346589008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A230-47D5-A9CA-0EFEC5E7BAE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="636105312"/>
+        <c:axId val="636114880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="636105312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636114880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="636114880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636105312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13116,6 +13703,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15219,6 +15846,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15376,6 +16519,959 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563534</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380654</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C414747-953F-48D3-833D-73A2E629A59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138952</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996BDBCC-C916-4B51-99DA-896AA552720D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5226423" y="1707776"/>
+          <a:ext cx="4482" cy="632012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452718</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309630B9-C93C-4E8F-9073-306BF0CE511D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6338047" y="2604247"/>
+          <a:ext cx="4483" cy="224118"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587188</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186344</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E20DED-EE1F-4D40-90E8-F5B3E200201D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5679141" y="1462224"/>
+          <a:ext cx="392532" cy="617588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75854</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399704</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D97C0D-8887-4FBA-AC66-23298419F0AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5936327" y="477635"/>
+          <a:ext cx="1903268" cy="273627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Actual values</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> as scatterpoints</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>712124</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32905</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAFC633-14D6-456D-9CCA-AC1F00DDA23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572597" y="728402"/>
+          <a:ext cx="1689908" cy="474865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Predicted values along the regression line</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85167</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC86963-961B-4C51-8410-91BF9D5B2FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5966012" y="2510116"/>
+          <a:ext cx="4484" cy="295837"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340659</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D7122A-A5FC-4486-81B7-02DF46FC728E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4639235" y="1918447"/>
+          <a:ext cx="0" cy="318247"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597824</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>192741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169268</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F682E48-8A85-41A3-868E-3F5C83D422C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4896400" y="2294965"/>
+          <a:ext cx="2812" cy="209609"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92439</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92439</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395422CA-C2B1-42AD-914C-3D3C6AD81B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6771145" y="2669545"/>
+          <a:ext cx="0" cy="92114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484096</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488576</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40900356-773C-4C44-9366-26BD1881F5D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5576049" y="2133600"/>
+          <a:ext cx="4480" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426374</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426374</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F839EB0C-C83F-4598-904C-65314C9A2E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105080" y="2744627"/>
+          <a:ext cx="0" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>36165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45437A92-5847-40CD-A217-E0C4C13F28B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8053322" y="2981723"/>
+          <a:ext cx="0" cy="88995"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>738795</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3061CE6B-84B3-42A2-A574-B11E00EE5728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5629835" y="1775317"/>
+          <a:ext cx="994289" cy="636189"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262544</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>232064</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B04C2C-CEC2-4D50-A7E4-790C231AC1E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6912726" y="1120140"/>
+          <a:ext cx="1548938" cy="657051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Goal: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Minimize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> the difference (the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>residual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>s)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BBF69B-D74F-473C-98E2-0AE9919EA456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6698307" y="2321715"/>
+          <a:ext cx="2811" cy="336321"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15698,9 +17794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M393"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
@@ -15709,7 +17803,7 @@
     <col min="5" max="5" width="12.08203125" customWidth="1"/>
     <col min="6" max="6" width="13.2890625" customWidth="1"/>
     <col min="9" max="9" width="12.2890625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="30.95703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28308,9 +30402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
@@ -28459,9 +30551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <sheetData/>
@@ -28474,9 +30564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <sheetData/>
@@ -28489,9 +30577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K147" sqref="K147"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
   <cols>
@@ -28720,4 +30806,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3BB9F-61C9-4353-9051-23EDB680FF8F}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="4" max="4" width="12.2890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="1">
+        <v>46.216524549017564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="C2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-7.6473425357795723E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3504</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <f>$D$1+($D$2*B5)</f>
+        <v>19.420236303645943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>2789</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D14" si="0">$D$1+($D$2*B6)</f>
+        <v>24.888086216728336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>325</v>
+      </c>
+      <c r="B7">
+        <v>2335</v>
+      </c>
+      <c r="C7">
+        <v>43.4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>28.359979727972263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>4100</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>14.862420152321317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>327</v>
+      </c>
+      <c r="B9">
+        <v>3250</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>21.362661307733955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A10" s="6">
+        <v>100</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3021</v>
+      </c>
+      <c r="C10" s="6">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>23.113902748427474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>307</v>
+      </c>
+      <c r="B11">
+        <v>2556</v>
+      </c>
+      <c r="C11">
+        <v>33.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>26.669917027564978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>2126</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>29.958274317950192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>309</v>
+      </c>
+      <c r="B13">
+        <v>1968</v>
+      </c>
+      <c r="C13">
+        <v>38.1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>31.166554438603363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>3282</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>21.117946346589008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>